--- a/backend/食品標準成分表示_主食・肉類.xlsx
+++ b/backend/食品標準成分表示_主食・肉類.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncuit-my.sharepoint.com/personal/c223062_ed_nagoya-cu_ac_jp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{AF2A7D61-F9BD-4FDE-AA1D-999DBAD4FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0AC0C94-F769-4FC4-A899-C60CFDE411D2}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="8_{AF2A7D61-F9BD-4FDE-AA1D-999DBAD4FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31B85AAB-AEEA-436C-BBE5-D23597CC597E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="1" activeTab="1" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
   <si>
     <t>可　　食　　部　　 100　　g　　当　　た　　り</t>
   </si>
@@ -491,12 +492,107 @@
   <si>
     <t>1食分の目安値</t>
   </si>
+  <si>
+    <t>アミノ酸組成による
+たんぱく質</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂肪酸の
+トリアシルグリセロール当量</t>
+    <rPh sb="0" eb="3">
+      <t>シボウサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用可能炭水化物
+（単糖当量）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食物繊維総量</t>
+    <rPh sb="0" eb="2">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖アルコール</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有機酸</t>
+    <rPh sb="0" eb="3">
+      <t>ユウキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂質のエネルギー</t>
+  </si>
+  <si>
+    <t>タンパク質のエネルギー</t>
+  </si>
+  <si>
+    <t>炭水化物のエネルギー</t>
+  </si>
+  <si>
+    <t>総エネルギー</t>
+  </si>
+  <si>
+    <t>pi-0.13ti</t>
+  </si>
+  <si>
+    <t>pi-0.2ti</t>
+  </si>
+  <si>
+    <t>fi-0.2ti</t>
+  </si>
+  <si>
+    <t>fi-0.3ti</t>
+  </si>
+  <si>
+    <t>ci-0.5ti</t>
+  </si>
+  <si>
+    <t>ci-0.65ti</t>
+  </si>
+  <si>
+    <t>kcal</t>
+  </si>
+  <si>
+    <t>1食分の目安</t>
+    <rPh sb="1" eb="3">
+      <t>ショクブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,7 +679,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -710,6 +806,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -717,7 +944,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,6 +996,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,6 +1041,36 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -806,10 +1087,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,37 +1408,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B5739F-604B-40F7-865A-6C295999D2CA}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="76" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView topLeftCell="E1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+    <row r="1" spans="1:33" ht="18">
+      <c r="E1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
-    <row r="2" spans="1:33" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" ht="144">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1217,33 +1494,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" ht="18">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="18"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1251,7 +1528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" ht="18">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1307,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" ht="18">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" ht="18">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1419,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" s="13" customFormat="1" ht="18">
       <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1766,7 @@
       <c r="AF7"/>
       <c r="AG7"/>
     </row>
-    <row r="8" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" ht="18">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1545,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" ht="18">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1601,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" ht="18">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" ht="18">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1713,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" ht="18">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1769,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" ht="18">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1825,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" ht="18">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1881,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" ht="18">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1937,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" ht="18">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1993,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" ht="18">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2049,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" ht="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2105,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" ht="18">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2161,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" ht="18">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2217,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" ht="18">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2273,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" ht="18">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -2329,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" ht="18">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2385,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" ht="18">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2441,7 +2718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" ht="18">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2497,7 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18" ht="18">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2553,7 +2830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18" ht="18">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2609,7 +2886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:18" ht="18">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -2665,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:18" ht="18">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2721,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:18" ht="18">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2777,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:18" ht="18">
       <c r="D32" s="15" t="s">
         <v>78</v>
       </c>
@@ -2824,7 +3101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="4:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="4:18" ht="15.75" customHeight="1">
       <c r="D33" t="s">
         <v>79</v>
       </c>
@@ -2882,4 +3159,3363 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8435D20D-942F-455A-B057-2DD8C4A2B19D}">
+  <dimension ref="A1:AI32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X13" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AK30" sqref="AK30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="65.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="15.75">
+      <c r="E1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+    </row>
+    <row r="2" spans="1:35" ht="285">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="18" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="31"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="40"/>
+    </row>
+    <row r="4" spans="1:35" ht="15.75">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="C4">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4">
+        <v>0.01</v>
+      </c>
+      <c r="P4">
+        <v>0.02</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="38">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U4" s="16">
+        <v>38.1</v>
+      </c>
+      <c r="V4">
+        <v>1.5</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1.8</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>145.875</v>
+      </c>
+      <c r="AC4" s="38">
+        <v>155.67500000000001</v>
+      </c>
+      <c r="AD4">
+        <f>AA4-0.13*AC4</f>
+        <v>-12.237750000000002</v>
+      </c>
+      <c r="AE4">
+        <f>AA4-0.2*AC4</f>
+        <v>-23.135000000000005</v>
+      </c>
+      <c r="AF4">
+        <f>Z4-0.2*AC4</f>
+        <v>-29.335000000000004</v>
+      </c>
+      <c r="AG4">
+        <f>AA4-0.3*AC4</f>
+        <v>-38.702500000000001</v>
+      </c>
+      <c r="AH4">
+        <f>AB4-0.5*AC4</f>
+        <v>68.037499999999994</v>
+      </c>
+      <c r="AI4">
+        <f>AB4-0.65*AC4</f>
+        <v>44.686249999999987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="15.75">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>230</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F5">
+        <v>1.3</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.02</v>
+      </c>
+      <c r="O5">
+        <v>0.01</v>
+      </c>
+      <c r="P5">
+        <v>0.01</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="38">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="U5" s="16">
+        <v>21.4</v>
+      </c>
+      <c r="V5">
+        <v>1.3</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="AA5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AB5">
+        <v>82.85</v>
+      </c>
+      <c r="AC5" s="38">
+        <v>94.75</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD30" si="0">AA5-0.13*AC5</f>
+        <v>-3.1175000000000015</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE30" si="1">AA5-0.2*AC5</f>
+        <v>-9.75</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF30" si="2">Z5-0.2*AC5</f>
+        <v>-16.25</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ref="AG5:AG30" si="3">AA5-0.3*AC5</f>
+        <v>-19.225000000000001</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ref="AH5:AH30" si="4">AB5-0.5*AC5</f>
+        <v>35.474999999999994</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" ref="AI5:AI30" si="5">AB5-0.65*AC5</f>
+        <v>21.262499999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="15.75">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>230</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>5.3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>0.7</v>
+      </c>
+      <c r="K6">
+        <v>0.7</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.06</v>
+      </c>
+      <c r="O6">
+        <v>0.03</v>
+      </c>
+      <c r="P6">
+        <v>0.02</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="38">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>5.3</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="U6" s="16">
+        <v>31.3</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>6.3</v>
+      </c>
+      <c r="AA6">
+        <v>21.2</v>
+      </c>
+      <c r="AB6">
+        <v>123.375</v>
+      </c>
+      <c r="AC6" s="38">
+        <v>150.875</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>1.5862499999999997</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>-8.9750000000000014</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>-23.875</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>-24.062499999999996</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>47.9375</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="5"/>
+        <v>25.306249999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="15.75">
+      <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="13">
+        <v>230</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>4.7</v>
+      </c>
+      <c r="F7">
+        <v>3.1</v>
+      </c>
+      <c r="G7">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>0.4</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.16</v>
+      </c>
+      <c r="P7">
+        <v>0.02</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" s="38">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>4.7</v>
+      </c>
+      <c r="T7" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="U7" s="16">
+        <v>33.6</v>
+      </c>
+      <c r="V7">
+        <v>3.1</v>
+      </c>
+      <c r="W7">
+        <v>0.2</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>13.5</v>
+      </c>
+      <c r="AA7">
+        <v>18.8</v>
+      </c>
+      <c r="AB7">
+        <v>132.67999999999998</v>
+      </c>
+      <c r="AC7" s="38">
+        <v>164.97999999999996</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>-2.647399999999994</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>-14.195999999999994</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>-19.495999999999995</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>-30.693999999999985</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="4"/>
+        <v>50.19</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="5"/>
+        <v>25.442999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="15.75">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>290</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>2.1</v>
+      </c>
+      <c r="K8">
+        <v>4.5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.08</v>
+      </c>
+      <c r="O8">
+        <v>0.2</v>
+      </c>
+      <c r="P8">
+        <v>0.33</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" s="38">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T8" s="16">
+        <v>18</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>162</v>
+      </c>
+      <c r="AA8">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AB8">
+        <v>1.125</v>
+      </c>
+      <c r="AC8" s="38">
+        <v>231.52500000000001</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>38.301750000000006</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>22.094999999999999</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>115.69499999999999</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>-1.0574999999999903</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
+        <v>-114.6375</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="5"/>
+        <v>-149.36625000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="15.75">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>13.7</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>260</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
+        <v>4.7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>0.1</v>
+      </c>
+      <c r="N9">
+        <v>0.06</v>
+      </c>
+      <c r="O9">
+        <v>0.17</v>
+      </c>
+      <c r="P9">
+        <v>0.21</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" s="38">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>13.7</v>
+      </c>
+      <c r="T9" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="U9" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>222.29999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>54.8</v>
+      </c>
+      <c r="AB9">
+        <v>16.5</v>
+      </c>
+      <c r="AC9" s="38">
+        <v>293.59999999999997</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>16.631999999999998</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>-3.9200000000000017</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>163.57999999999998</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>-33.279999999999987</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>-130.29999999999998</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="5"/>
+        <v>-174.33999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="15.75">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>12.5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>230</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3.7</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>0.1</v>
+      </c>
+      <c r="N10">
+        <v>0.05</v>
+      </c>
+      <c r="O10">
+        <v>0.12</v>
+      </c>
+      <c r="P10">
+        <v>0.22</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10" s="38">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>12.5</v>
+      </c>
+      <c r="T10" s="16">
+        <v>35</v>
+      </c>
+      <c r="U10" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>315</v>
+      </c>
+      <c r="AA10">
+        <v>50</v>
+      </c>
+      <c r="AB10">
+        <v>14.625</v>
+      </c>
+      <c r="AC10" s="38">
+        <v>379.625</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>0.64874999999999972</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>-25.924999999999997</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>239.07499999999999</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="3"/>
+        <v>-63.887500000000003</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>-175.1875</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="5"/>
+        <v>-232.13124999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="15.75">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>270</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2.9</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.06</v>
+      </c>
+      <c r="O11">
+        <v>0.1</v>
+      </c>
+      <c r="P11">
+        <v>0.38</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11" s="38">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+      <c r="T11" s="16">
+        <v>26.7</v>
+      </c>
+      <c r="U11" s="16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>240.29999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>56</v>
+      </c>
+      <c r="AB11">
+        <v>15.374999999999998</v>
+      </c>
+      <c r="AC11" s="38">
+        <v>311.67499999999995</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>15.482250000000008</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>-6.3349999999999937</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>177.96499999999997</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>-37.502499999999984</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>-140.46249999999998</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="5"/>
+        <v>-187.21374999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15.75">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>11.1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>190</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>1.4</v>
+      </c>
+      <c r="K12">
+        <v>2.8</v>
+      </c>
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.05</v>
+      </c>
+      <c r="O12">
+        <v>0.12</v>
+      </c>
+      <c r="P12">
+        <v>0.21</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12" s="38">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>11.1</v>
+      </c>
+      <c r="T12" s="16">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>335.7</v>
+      </c>
+      <c r="AA12">
+        <v>44.4</v>
+      </c>
+      <c r="AB12">
+        <v>1.125</v>
+      </c>
+      <c r="AC12" s="38">
+        <v>381.22499999999997</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>-5.1592500000000001</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="1"/>
+        <v>-31.844999999999992</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>259.45499999999998</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="3"/>
+        <v>-69.967500000000001</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>-189.48749999999998</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="5"/>
+        <v>-246.67124999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15.75">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>330</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>1.4</v>
+      </c>
+      <c r="K13">
+        <v>4.5</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.08</v>
+      </c>
+      <c r="O13">
+        <v>0.2</v>
+      </c>
+      <c r="P13">
+        <v>0.32</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13" s="38">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>16</v>
+      </c>
+      <c r="T13" s="16">
+        <v>12.6</v>
+      </c>
+      <c r="U13" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>113.39999999999999</v>
+      </c>
+      <c r="AA13">
+        <v>64</v>
+      </c>
+      <c r="AB13">
+        <v>17.25</v>
+      </c>
+      <c r="AC13" s="38">
+        <v>194.64999999999998</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="0"/>
+        <v>38.695500000000003</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>25.07</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>74.47</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>5.6050000000000111</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>-80.074999999999989</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="5"/>
+        <v>-109.27249999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15.75">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>310</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>1.4</v>
+      </c>
+      <c r="K14">
+        <v>3.2</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.08</v>
+      </c>
+      <c r="O14">
+        <v>0.17</v>
+      </c>
+      <c r="P14">
+        <v>0.34</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14" s="38">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>15</v>
+      </c>
+      <c r="T14" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="U14" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>143.1</v>
+      </c>
+      <c r="AA14">
+        <v>60</v>
+      </c>
+      <c r="AB14">
+        <v>15.75</v>
+      </c>
+      <c r="AC14" s="38">
+        <v>218.85</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>31.549499999999998</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>16.229999999999997</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>99.329999999999984</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>-5.6550000000000011</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>-93.674999999999997</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="5"/>
+        <v>-126.5025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="15.75">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>15.3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>1.4</v>
+      </c>
+      <c r="K15">
+        <v>3.7</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.08</v>
+      </c>
+      <c r="O15">
+        <v>0.19</v>
+      </c>
+      <c r="P15">
+        <v>0.3</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15" s="38">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>15.3</v>
+      </c>
+      <c r="T15" s="16">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="U15" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>153.9</v>
+      </c>
+      <c r="AA15">
+        <v>61.2</v>
+      </c>
+      <c r="AB15">
+        <v>17.25</v>
+      </c>
+      <c r="AC15" s="38">
+        <v>232.35000000000002</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>30.994499999999999</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>14.729999999999997</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>107.43</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>-8.5049999999999955</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>-98.925000000000011</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="5"/>
+        <v>-133.77750000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="15.75">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>17.7</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>380</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>23</v>
+      </c>
+      <c r="J16">
+        <v>2.4</v>
+      </c>
+      <c r="K16">
+        <v>3.4</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.12</v>
+      </c>
+      <c r="O16">
+        <v>0.26</v>
+      </c>
+      <c r="P16">
+        <v>0.43</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+      <c r="R16" s="38">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>17.7</v>
+      </c>
+      <c r="T16" s="16">
+        <v>10.1</v>
+      </c>
+      <c r="U16" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>90.899999999999991</v>
+      </c>
+      <c r="AA16">
+        <v>70.8</v>
+      </c>
+      <c r="AB16">
+        <v>14.25</v>
+      </c>
+      <c r="AC16" s="38">
+        <v>175.95</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="0"/>
+        <v>47.926499999999997</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>35.61</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>55.709999999999994</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="3"/>
+        <v>18.015000000000001</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>-73.724999999999994</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="5"/>
+        <v>-100.11749999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15.75">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>18.5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>320</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>2.7</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>0.2</v>
+      </c>
+      <c r="N17">
+        <v>0.66</v>
+      </c>
+      <c r="O17">
+        <v>0.23</v>
+      </c>
+      <c r="P17">
+        <v>0.32</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17" s="38">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>18.5</v>
+      </c>
+      <c r="T17" s="16">
+        <v>14</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>126</v>
+      </c>
+      <c r="AA17">
+        <v>74</v>
+      </c>
+      <c r="AB17">
+        <v>0.75</v>
+      </c>
+      <c r="AC17" s="38">
+        <v>200.75</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="0"/>
+        <v>47.902500000000003</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="1"/>
+        <v>33.849999999999994</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>85.85</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>13.775000000000006</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>-99.625</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="5"/>
+        <v>-129.73750000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15.75">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>14.7</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>0.6</v>
+      </c>
+      <c r="K18">
+        <v>2.7</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>0.3</v>
+      </c>
+      <c r="N18">
+        <v>0.63</v>
+      </c>
+      <c r="O18">
+        <v>0.23</v>
+      </c>
+      <c r="P18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18" s="38">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>14.7</v>
+      </c>
+      <c r="T18" s="16">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="U18" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>165.6</v>
+      </c>
+      <c r="AA18">
+        <v>58.8</v>
+      </c>
+      <c r="AB18">
+        <v>12.75</v>
+      </c>
+      <c r="AC18" s="38">
+        <v>237.14999999999998</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="0"/>
+        <v>27.970499999999998</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>11.369999999999997</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="2"/>
+        <v>118.16999999999999</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>-12.344999999999999</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>-105.82499999999999</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="5"/>
+        <v>-141.39749999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15.75">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>17.2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>310</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>0.3</v>
+      </c>
+      <c r="K19">
+        <v>1.6</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>0.1</v>
+      </c>
+      <c r="N19">
+        <v>0.69</v>
+      </c>
+      <c r="O19">
+        <v>0.15</v>
+      </c>
+      <c r="P19">
+        <v>0.32</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="38">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>17.2</v>
+      </c>
+      <c r="T19" s="16">
+        <v>18.5</v>
+      </c>
+      <c r="U19" s="16">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>166.5</v>
+      </c>
+      <c r="AA19">
+        <v>68.8</v>
+      </c>
+      <c r="AB19">
+        <v>11.25</v>
+      </c>
+      <c r="AC19" s="38">
+        <v>246.55</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="0"/>
+        <v>36.748499999999993</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="1"/>
+        <v>19.489999999999995</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>117.19</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="3"/>
+        <v>-5.1650000000000063</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>-112.02500000000001</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="5"/>
+        <v>-149.00750000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="15.75">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20">
+        <v>12.8</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>240</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>0.6</v>
+      </c>
+      <c r="K20">
+        <v>1.8</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
+        <v>0.51</v>
+      </c>
+      <c r="O20">
+        <v>0.13</v>
+      </c>
+      <c r="P20">
+        <v>0.22</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20" s="38">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>12.8</v>
+      </c>
+      <c r="T20" s="16">
+        <v>34.9</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>314.09999999999997</v>
+      </c>
+      <c r="AA20">
+        <v>51.2</v>
+      </c>
+      <c r="AB20">
+        <v>0.375</v>
+      </c>
+      <c r="AC20" s="38">
+        <v>365.67499999999995</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="0"/>
+        <v>3.6622500000000073</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="1"/>
+        <v>-21.934999999999988</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="2"/>
+        <v>240.96499999999997</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>-58.502499999999984</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>-182.46249999999998</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="5"/>
+        <v>-237.31374999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15.75">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>350</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>24</v>
+      </c>
+      <c r="J21">
+        <v>0.7</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0.1</v>
+      </c>
+      <c r="N21">
+        <v>0.9</v>
+      </c>
+      <c r="O21">
+        <v>0.21</v>
+      </c>
+      <c r="P21">
+        <v>0.31</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21" s="38">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T21" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="U21" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>85.5</v>
+      </c>
+      <c r="AA21">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="AB21">
+        <v>17.25</v>
+      </c>
+      <c r="AC21" s="38">
+        <v>170.35</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="0"/>
+        <v>45.454499999999996</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="1"/>
+        <v>33.529999999999994</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>51.43</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>16.494999999999997</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="4"/>
+        <v>-67.924999999999997</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="5"/>
+        <v>-93.477500000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15.75">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22">
+        <v>15.6</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>320</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>1.9</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>0.2</v>
+      </c>
+      <c r="N22">
+        <v>0.79</v>
+      </c>
+      <c r="O22">
+        <v>0.18</v>
+      </c>
+      <c r="P22">
+        <v>0.36</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="38">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>15.6</v>
+      </c>
+      <c r="T22" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="U22" s="16">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>143.1</v>
+      </c>
+      <c r="AA22">
+        <v>62.4</v>
+      </c>
+      <c r="AB22">
+        <v>15</v>
+      </c>
+      <c r="AC22" s="38">
+        <v>220.5</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="0"/>
+        <v>33.734999999999999</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="1"/>
+        <v>18.299999999999997</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>-3.7499999999999929</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="4"/>
+        <v>-95.25</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="5"/>
+        <v>-128.32500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="15.75">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>18.5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>430</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>0.9</v>
+      </c>
+      <c r="K23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0.3</v>
+      </c>
+      <c r="N23">
+        <v>1.32</v>
+      </c>
+      <c r="O23">
+        <v>0.25</v>
+      </c>
+      <c r="P23">
+        <v>0.54</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="38">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>18.5</v>
+      </c>
+      <c r="T23" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="U23" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>29.7</v>
+      </c>
+      <c r="AA23">
+        <v>74</v>
+      </c>
+      <c r="AB23">
+        <v>13.875</v>
+      </c>
+      <c r="AC23" s="38">
+        <v>117.575</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="0"/>
+        <v>58.715249999999997</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="1"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="2"/>
+        <v>6.1849999999999987</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="3"/>
+        <v>38.727499999999999</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="4"/>
+        <v>-44.912500000000001</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="5"/>
+        <v>-62.548749999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15.75">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24">
+        <v>16.5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>220</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>1.2</v>
+      </c>
+      <c r="L24">
+        <v>47</v>
+      </c>
+      <c r="M24">
+        <v>0.4</v>
+      </c>
+      <c r="N24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.1</v>
+      </c>
+      <c r="P24">
+        <v>0.38</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24" s="38">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>16.5</v>
+      </c>
+      <c r="T24" s="16">
+        <v>13.7</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>123.3</v>
+      </c>
+      <c r="AA24">
+        <v>66</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="38">
+        <v>189.3</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="0"/>
+        <v>41.390999999999998</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="1"/>
+        <v>28.139999999999993</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>85.44</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="3"/>
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="4"/>
+        <v>-94.65</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="5"/>
+        <v>-123.04500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="15.75">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>16.3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>210</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>0.6</v>
+      </c>
+      <c r="K25">
+        <v>1.5</v>
+      </c>
+      <c r="L25">
+        <v>51</v>
+      </c>
+      <c r="M25">
+        <v>0.6</v>
+      </c>
+      <c r="N25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O25">
+        <v>0.09</v>
+      </c>
+      <c r="P25">
+        <v>0.3</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25" s="38">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>16.3</v>
+      </c>
+      <c r="T25" s="16">
+        <v>15.7</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>141.29999999999998</v>
+      </c>
+      <c r="AA25">
+        <v>65.2</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="38">
+        <v>206.5</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="0"/>
+        <v>38.355000000000004</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="1"/>
+        <v>23.9</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="2"/>
+        <v>99.999999999999972</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000071</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="4"/>
+        <v>-103.25</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="5"/>
+        <v>-134.22499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15.75">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26">
+        <v>16.7</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>230</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>44</v>
+      </c>
+      <c r="M26">
+        <v>0.3</v>
+      </c>
+      <c r="N26">
+        <v>0.08</v>
+      </c>
+      <c r="O26">
+        <v>0.1</v>
+      </c>
+      <c r="P26">
+        <v>0.45</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+      <c r="R26" s="38">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>16.7</v>
+      </c>
+      <c r="T26" s="16">
+        <v>12.1</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>108.89999999999999</v>
+      </c>
+      <c r="AA26">
+        <v>66.8</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="38">
+        <v>175.7</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="0"/>
+        <v>43.959000000000003</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="1"/>
+        <v>31.659999999999997</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="2"/>
+        <v>73.759999999999991</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="3"/>
+        <v>14.090000000000003</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="4"/>
+        <v>-87.85</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="5"/>
+        <v>-114.205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15.75">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>17.3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>340</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <v>0.3</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>0.1</v>
+      </c>
+      <c r="N27">
+        <v>0.09</v>
+      </c>
+      <c r="O27">
+        <v>0.1</v>
+      </c>
+      <c r="P27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27" s="38">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>17.3</v>
+      </c>
+      <c r="T27" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="U27" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>49.5</v>
+      </c>
+      <c r="AA27">
+        <v>69.2</v>
+      </c>
+      <c r="AB27">
+        <v>13.5</v>
+      </c>
+      <c r="AC27" s="38">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="0"/>
+        <v>52.014000000000003</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="1"/>
+        <v>42.760000000000005</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="2"/>
+        <v>23.060000000000002</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="3"/>
+        <v>29.540000000000006</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="4"/>
+        <v>-52.599999999999994</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="5"/>
+        <v>-72.429999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="15.75">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>290</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>0.6</v>
+      </c>
+      <c r="K28">
+        <v>1.6</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>0.4</v>
+      </c>
+      <c r="N28">
+        <v>0.1</v>
+      </c>
+      <c r="O28">
+        <v>0.15</v>
+      </c>
+      <c r="P28">
+        <v>0.25</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+      <c r="R28" s="38">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>17</v>
+      </c>
+      <c r="T28" s="16">
+        <v>13.5</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>121.5</v>
+      </c>
+      <c r="AA28">
+        <v>68</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="38">
+        <v>189.5</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="0"/>
+        <v>43.364999999999995</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="1"/>
+        <v>30.1</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="2"/>
+        <v>83.6</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="3"/>
+        <v>11.149999999999999</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="4"/>
+        <v>-94.75</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="5"/>
+        <v>-123.175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="15.75">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>19.7</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>410</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>32</v>
+      </c>
+      <c r="J29">
+        <v>0.3</v>
+      </c>
+      <c r="K29">
+        <v>0.6</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0.09</v>
+      </c>
+      <c r="O29">
+        <v>0.11</v>
+      </c>
+      <c r="P29">
+        <v>0.62</v>
+      </c>
+      <c r="Q29">
+        <v>15</v>
+      </c>
+      <c r="R29" s="38">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>19.7</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="U29" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0.7</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>4.5</v>
+      </c>
+      <c r="AA29">
+        <v>78.8</v>
+      </c>
+      <c r="AB29">
+        <v>12.6</v>
+      </c>
+      <c r="AC29" s="38">
+        <v>95.899999999999991</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="0"/>
+        <v>66.332999999999998</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="1"/>
+        <v>59.62</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="2"/>
+        <v>-14.68</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="3"/>
+        <v>50.03</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="4"/>
+        <v>-35.349999999999994</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="5"/>
+        <v>-49.734999999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="15.75">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>14.6</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>250</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>0.8</v>
+      </c>
+      <c r="K30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L30">
+        <v>37</v>
+      </c>
+      <c r="M30">
+        <v>0.1</v>
+      </c>
+      <c r="N30">
+        <v>0.09</v>
+      </c>
+      <c r="O30">
+        <v>0.17</v>
+      </c>
+      <c r="P30">
+        <v>0.52</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30" s="38">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>14.6</v>
+      </c>
+      <c r="T30" s="16">
+        <v>11</v>
+      </c>
+      <c r="U30" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>99</v>
+      </c>
+      <c r="AA30">
+        <v>58.4</v>
+      </c>
+      <c r="AB30">
+        <v>12.75</v>
+      </c>
+      <c r="AC30" s="38">
+        <v>170.15</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="0"/>
+        <v>36.280499999999996</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="1"/>
+        <v>24.369999999999997</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="2"/>
+        <v>64.97</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="3"/>
+        <v>7.3549999999999969</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="4"/>
+        <v>-72.325000000000003</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="5"/>
+        <v>-97.847500000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="D31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="F31" s="15">
+        <v>20</v>
+      </c>
+      <c r="G31" s="15">
+        <v>2500</v>
+      </c>
+      <c r="H31" s="15">
+        <v>800</v>
+      </c>
+      <c r="I31" s="15">
+        <v>340</v>
+      </c>
+      <c r="J31" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="K31" s="15">
+        <v>11</v>
+      </c>
+      <c r="L31" s="15">
+        <v>850</v>
+      </c>
+      <c r="M31" s="15">
+        <v>9</v>
+      </c>
+      <c r="N31" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O31" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="P31" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>240</v>
+      </c>
+      <c r="R31" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>21.67</v>
+      </c>
+      <c r="F32">
+        <v>6.67</v>
+      </c>
+      <c r="G32">
+        <v>833.33</v>
+      </c>
+      <c r="H32">
+        <v>266.67</v>
+      </c>
+      <c r="I32">
+        <v>113.33</v>
+      </c>
+      <c r="J32">
+        <v>2.5</v>
+      </c>
+      <c r="K32">
+        <v>3.67</v>
+      </c>
+      <c r="L32">
+        <v>283.33</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>0.37</v>
+      </c>
+      <c r="O32">
+        <v>0.53</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>80</v>
+      </c>
+      <c r="R32">
+        <v>33.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S3:Y3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backend/食品標準成分表示_主食・肉類.xlsx
+++ b/backend/食品標準成分表示_主食・肉類.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncuit-my.sharepoint.com/personal/c223062_ed_nagoya-cu_ac_jp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="8_{AF2A7D61-F9BD-4FDE-AA1D-999DBAD4FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69AC75B-A12E-4393-ADC4-72AECD1BE7EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1F7446-B356-4268-BDA9-50B6F65ECB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="主食・肉類" sheetId="2" r:id="rId1"/>
+    <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>
+    <sheet name="エネルギー比率計算するだけ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
   <si>
     <t>可　　食　　部　　 100　　g　　当　　た　　り</t>
   </si>
@@ -265,12 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>脂質のエネルギー</t>
-  </si>
-  <si>
-    <t>タンパク質のエネルギー</t>
-  </si>
-  <si>
     <t>炭水化物のエネルギー</t>
   </si>
   <si>
@@ -541,6 +536,20 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>メヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンパク質のエネルギー</t>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂質のエネルギー</t>
+    <rPh sb="0" eb="2">
+      <t>シシツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -608,7 +617,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -855,6 +864,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -862,7 +1014,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +1135,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -999,10 +1205,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1321,11 +1523,2635 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53B3E39-95ED-4142-9E14-53CE5E556F6C}">
+  <dimension ref="A1:AB32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" ht="199" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="54"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="26">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>8</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="U4" s="1">
+        <v>145.875</v>
+      </c>
+      <c r="V4" s="40">
+        <v>155.67500000000001</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-12.23775</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-23.135000000000005</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-29.335000000000004</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>-44.902500000000003</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>68.037499999999994</v>
+      </c>
+      <c r="AB4" s="55">
+        <v>44.686249999999987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="U5" s="1">
+        <v>82.85</v>
+      </c>
+      <c r="V5" s="41">
+        <v>94.75</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-3.1175000000000015</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-9.75</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-16.25</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>-25.725000000000001</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>35.474999999999994</v>
+      </c>
+      <c r="AB5" s="56">
+        <v>21.262499999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1">
+        <v>180</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="27">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>123.375</v>
+      </c>
+      <c r="V6" s="41">
+        <v>150.875</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1.5862499999999997</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-8.9750000000000014</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-23.875</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-38.962499999999999</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>47.9375</v>
+      </c>
+      <c r="AB6" s="56">
+        <v>25.306249999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="T7" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="U7" s="1">
+        <v>132.67999999999998</v>
+      </c>
+      <c r="V7" s="41">
+        <v>164.97999999999996</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-2.647399999999994</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-14.195999999999994</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-19.495999999999995</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-35.993999999999986</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>50.19</v>
+      </c>
+      <c r="AB7" s="56">
+        <v>25.442999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="26">
+        <v>100</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>114</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>290</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="27">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="T8" s="1">
+        <v>162</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="V8" s="41">
+        <v>231.52500000000001</v>
+      </c>
+      <c r="W8" s="1">
+        <v>38.301750000000006</v>
+      </c>
+      <c r="X8" s="1">
+        <v>22.094999999999999</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>115.69499999999999</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>92.542500000000004</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>-114.6375</v>
+      </c>
+      <c r="AB8" s="56">
+        <v>-149.36625000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="26">
+        <v>100</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>260</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>7</v>
+      </c>
+      <c r="R9" s="27">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="T9" s="1">
+        <v>222.29999999999998</v>
+      </c>
+      <c r="U9" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="V9" s="41">
+        <v>293.59999999999997</v>
+      </c>
+      <c r="W9" s="1">
+        <v>16.631999999999998</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-3.9200000000000017</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>163.57999999999998</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>134.22</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-130.29999999999998</v>
+      </c>
+      <c r="AB9" s="56">
+        <v>-174.33999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="26">
+        <v>100</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1">
+        <v>156</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>230</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>6</v>
+      </c>
+      <c r="R10" s="27">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>50</v>
+      </c>
+      <c r="T10" s="1">
+        <v>315</v>
+      </c>
+      <c r="U10" s="1">
+        <v>14.625</v>
+      </c>
+      <c r="V10" s="41">
+        <v>379.625</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.64874999999999972</v>
+      </c>
+      <c r="X10" s="1">
+        <v>-25.924999999999997</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>239.07499999999999</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>201.11250000000001</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-175.1875</v>
+      </c>
+      <c r="AB10" s="56">
+        <v>-232.13124999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="26">
+        <v>100</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <v>139</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>270</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="L11" s="1">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>6</v>
+      </c>
+      <c r="R11" s="27">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>56</v>
+      </c>
+      <c r="T11" s="1">
+        <v>240.29999999999998</v>
+      </c>
+      <c r="U11" s="1">
+        <v>15.374999999999998</v>
+      </c>
+      <c r="V11" s="41">
+        <v>311.67499999999995</v>
+      </c>
+      <c r="W11" s="1">
+        <v>15.482250000000008</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-6.3349999999999937</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>177.96499999999997</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>146.79750000000001</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-140.46249999999998</v>
+      </c>
+      <c r="AB11" s="56">
+        <v>-187.21374999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="26">
+        <v>100</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1">
+        <v>176</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>190</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="27">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>335.7</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="V12" s="41">
+        <v>381.22499999999997</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-5.1592500000000001</v>
+      </c>
+      <c r="X12" s="1">
+        <v>-31.844999999999992</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>259.45499999999998</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>221.33249999999998</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-189.48749999999998</v>
+      </c>
+      <c r="AB12" s="56">
+        <v>-246.67124999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="26">
+        <v>100</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>122</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>330</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>9</v>
+      </c>
+      <c r="R13" s="27">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>64</v>
+      </c>
+      <c r="T13" s="1">
+        <v>113.39999999999999</v>
+      </c>
+      <c r="U13" s="1">
+        <v>17.25</v>
+      </c>
+      <c r="V13" s="41">
+        <v>194.64999999999998</v>
+      </c>
+      <c r="W13" s="1">
+        <v>38.695500000000003</v>
+      </c>
+      <c r="X13" s="1">
+        <v>25.07</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>74.47</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>55.005000000000003</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-80.074999999999989</v>
+      </c>
+      <c r="AB13" s="56">
+        <v>-109.27249999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="26">
+        <v>100</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1">
+        <v>130</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>310</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>6</v>
+      </c>
+      <c r="R14" s="27">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>60</v>
+      </c>
+      <c r="T14" s="1">
+        <v>143.1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="V14" s="41">
+        <v>218.85</v>
+      </c>
+      <c r="W14" s="1">
+        <v>31.549499999999998</v>
+      </c>
+      <c r="X14" s="1">
+        <v>16.229999999999997</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>99.329999999999984</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>77.444999999999993</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-93.674999999999997</v>
+      </c>
+      <c r="AB14" s="56">
+        <v>-126.5025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="26">
+        <v>100</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>127</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>300</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="L15" s="1">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>6</v>
+      </c>
+      <c r="R15" s="27">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="T15" s="1">
+        <v>153.9</v>
+      </c>
+      <c r="U15" s="1">
+        <v>17.25</v>
+      </c>
+      <c r="V15" s="41">
+        <v>232.35000000000002</v>
+      </c>
+      <c r="W15" s="1">
+        <v>30.994499999999999</v>
+      </c>
+      <c r="X15" s="1">
+        <v>14.729999999999997</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>107.43</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>84.195000000000007</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>-98.925000000000011</v>
+      </c>
+      <c r="AB15" s="56">
+        <v>-133.77750000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="26">
+        <v>100</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>380</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>11</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="T16" s="1">
+        <v>90.899999999999991</v>
+      </c>
+      <c r="U16" s="1">
+        <v>14.25</v>
+      </c>
+      <c r="V16" s="41">
+        <v>175.95</v>
+      </c>
+      <c r="W16" s="1">
+        <v>47.926499999999997</v>
+      </c>
+      <c r="X16" s="1">
+        <v>35.61</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>55.709999999999994</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>38.114999999999995</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>-73.724999999999994</v>
+      </c>
+      <c r="AB16" s="56">
+        <v>-100.11749999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="26">
+        <v>100</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>320</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" s="27">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>74</v>
+      </c>
+      <c r="T17" s="1">
+        <v>126</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="V17" s="41">
+        <v>200.75</v>
+      </c>
+      <c r="W17" s="1">
+        <v>47.902500000000003</v>
+      </c>
+      <c r="X17" s="1">
+        <v>33.849999999999994</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>85.85</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>65.775000000000006</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>-99.625</v>
+      </c>
+      <c r="AB17" s="56">
+        <v>-129.73750000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="26">
+        <v>100</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1">
+        <v>133</v>
+      </c>
+      <c r="E18" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>300</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="27">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="T18" s="1">
+        <v>165.6</v>
+      </c>
+      <c r="U18" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="V18" s="41">
+        <v>237.14999999999998</v>
+      </c>
+      <c r="W18" s="1">
+        <v>27.970499999999998</v>
+      </c>
+      <c r="X18" s="1">
+        <v>11.369999999999997</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>118.16999999999999</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>94.454999999999998</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>-105.82499999999999</v>
+      </c>
+      <c r="AB18" s="56">
+        <v>-141.39749999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="26">
+        <v>100</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1">
+        <v>113</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>310</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L19" s="1">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="27">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="T19" s="1">
+        <v>166.5</v>
+      </c>
+      <c r="U19" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="V19" s="41">
+        <v>246.55</v>
+      </c>
+      <c r="W19" s="1">
+        <v>36.748499999999993</v>
+      </c>
+      <c r="X19" s="1">
+        <v>19.489999999999995</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>117.19</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>92.534999999999997</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>-112.02500000000001</v>
+      </c>
+      <c r="AB19" s="56">
+        <v>-149.00750000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="26">
+        <v>100</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1">
+        <v>152</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>240</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L20" s="1">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2</v>
+      </c>
+      <c r="R20" s="27">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>314.09999999999997</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="V20" s="41">
+        <v>365.67499999999995</v>
+      </c>
+      <c r="W20" s="1">
+        <v>3.6622500000000073</v>
+      </c>
+      <c r="X20" s="1">
+        <v>-21.934999999999988</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>240.96499999999997</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>204.39749999999998</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>-182.46249999999998</v>
+      </c>
+      <c r="AB20" s="56">
+        <v>-237.31374999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="26">
+        <v>100</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>350</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2</v>
+      </c>
+      <c r="R21" s="27">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="T21" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="U21" s="1">
+        <v>17.25</v>
+      </c>
+      <c r="V21" s="41">
+        <v>170.35</v>
+      </c>
+      <c r="W21" s="1">
+        <v>45.454499999999996</v>
+      </c>
+      <c r="X21" s="1">
+        <v>33.529999999999994</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>51.43</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>34.395000000000003</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>-67.924999999999997</v>
+      </c>
+      <c r="AB21" s="56">
+        <v>-93.477500000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="26">
+        <v>100</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1">
+        <v>125</v>
+      </c>
+      <c r="E22" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>320</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="27">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>143.1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>15</v>
+      </c>
+      <c r="V22" s="41">
+        <v>220.5</v>
+      </c>
+      <c r="W22" s="1">
+        <v>33.734999999999999</v>
+      </c>
+      <c r="X22" s="1">
+        <v>18.299999999999997</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>99</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>76.95</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>-95.25</v>
+      </c>
+      <c r="AB22" s="56">
+        <v>-128.32500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="26">
+        <v>100</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1">
+        <v>105</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>430</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>27</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="27">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>74</v>
+      </c>
+      <c r="T23" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="U23" s="1">
+        <v>13.875</v>
+      </c>
+      <c r="V23" s="41">
+        <v>117.575</v>
+      </c>
+      <c r="W23" s="1">
+        <v>58.715249999999997</v>
+      </c>
+      <c r="X23" s="1">
+        <v>50.484999999999999</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>6.1849999999999987</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>-5.5725000000000016</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-44.912500000000001</v>
+      </c>
+      <c r="AB23" s="56">
+        <v>-62.548749999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="26">
+        <v>100</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1">
+        <v>118</v>
+      </c>
+      <c r="E24" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>220</v>
+      </c>
+      <c r="H24" s="1">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>47</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N24" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>10</v>
+      </c>
+      <c r="R24" s="27">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>66</v>
+      </c>
+      <c r="T24" s="1">
+        <v>123.3</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="41">
+        <v>189.3</v>
+      </c>
+      <c r="W24" s="1">
+        <v>41.390999999999998</v>
+      </c>
+      <c r="X24" s="1">
+        <v>28.139999999999993</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>85.44</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>66.509999999999991</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>-94.65</v>
+      </c>
+      <c r="AB24" s="56">
+        <v>-123.04500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="26">
+        <v>100</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1">
+        <v>120</v>
+      </c>
+      <c r="E25" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>210</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>51</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N25" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>8</v>
+      </c>
+      <c r="R25" s="27">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>141.29999999999998</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="41">
+        <v>206.5</v>
+      </c>
+      <c r="W25" s="1">
+        <v>38.355000000000004</v>
+      </c>
+      <c r="X25" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>99.999999999999972</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>-103.25</v>
+      </c>
+      <c r="AB25" s="56">
+        <v>-134.22499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="26">
+        <v>100</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1">
+        <v>117</v>
+      </c>
+      <c r="E26" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>230</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>44</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>12</v>
+      </c>
+      <c r="R26" s="27">
+        <v>2</v>
+      </c>
+      <c r="S26" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="T26" s="1">
+        <v>108.89999999999999</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="41">
+        <v>175.7</v>
+      </c>
+      <c r="W26" s="1">
+        <v>43.959000000000003</v>
+      </c>
+      <c r="X26" s="1">
+        <v>31.659999999999997</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>73.759999999999991</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>56.19</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>-87.85</v>
+      </c>
+      <c r="AB26" s="56">
+        <v>-114.205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="26">
+        <v>100</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1">
+        <v>113</v>
+      </c>
+      <c r="E27" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>340</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>27</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L27" s="1">
+        <v>18</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>12</v>
+      </c>
+      <c r="R27" s="27">
+        <v>3</v>
+      </c>
+      <c r="S27" s="1">
+        <v>69.2</v>
+      </c>
+      <c r="T27" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="U27" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="V27" s="41">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="W27" s="1">
+        <v>52.014000000000003</v>
+      </c>
+      <c r="X27" s="1">
+        <v>42.760000000000005</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>23.060000000000002</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>9.8400000000000034</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>-52.599999999999994</v>
+      </c>
+      <c r="AB27" s="56">
+        <v>-72.429999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="26">
+        <v>100</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1">
+        <v>115</v>
+      </c>
+      <c r="E28" s="1">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>290</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L28" s="1">
+        <v>40</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>13</v>
+      </c>
+      <c r="R28" s="27">
+        <v>3</v>
+      </c>
+      <c r="S28" s="1">
+        <v>68</v>
+      </c>
+      <c r="T28" s="1">
+        <v>121.5</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="41">
+        <v>189.5</v>
+      </c>
+      <c r="W28" s="1">
+        <v>43.364999999999995</v>
+      </c>
+      <c r="X28" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>-94.75</v>
+      </c>
+      <c r="AB28" s="56">
+        <v>-123.175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="26">
+        <v>100</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="1">
+        <v>99</v>
+      </c>
+      <c r="E29" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>410</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>15</v>
+      </c>
+      <c r="R29" s="27">
+        <v>3</v>
+      </c>
+      <c r="S29" s="1">
+        <v>78.8</v>
+      </c>
+      <c r="T29" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="U29" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="V29" s="41">
+        <v>95.899999999999991</v>
+      </c>
+      <c r="W29" s="1">
+        <v>66.332999999999998</v>
+      </c>
+      <c r="X29" s="1">
+        <v>59.62</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>-14.68</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>-24.269999999999996</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>-35.349999999999994</v>
+      </c>
+      <c r="AB29" s="56">
+        <v>-49.734999999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="26">
+        <v>100</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1">
+        <v>134</v>
+      </c>
+      <c r="E30" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>250</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L30" s="1">
+        <v>37</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>10</v>
+      </c>
+      <c r="R30" s="27">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="T30" s="1">
+        <v>99</v>
+      </c>
+      <c r="U30" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="V30" s="41">
+        <v>170.15</v>
+      </c>
+      <c r="W30" s="1">
+        <v>36.280499999999996</v>
+      </c>
+      <c r="X30" s="1">
+        <v>24.369999999999997</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>64.97</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>47.954999999999998</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>-72.325000000000003</v>
+      </c>
+      <c r="AB30" s="57">
+        <v>-97.847500000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="49">
+        <v>65</v>
+      </c>
+      <c r="F31" s="51">
+        <v>20</v>
+      </c>
+      <c r="G31" s="51">
+        <v>2500</v>
+      </c>
+      <c r="H31" s="51">
+        <v>800</v>
+      </c>
+      <c r="I31" s="51">
+        <v>340</v>
+      </c>
+      <c r="J31" s="51">
+        <v>7.5</v>
+      </c>
+      <c r="K31" s="51">
+        <v>11</v>
+      </c>
+      <c r="L31" s="51">
+        <v>850</v>
+      </c>
+      <c r="M31" s="51">
+        <v>9</v>
+      </c>
+      <c r="N31" s="51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O31" s="51">
+        <v>1.6</v>
+      </c>
+      <c r="P31" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" s="51">
+        <v>240</v>
+      </c>
+      <c r="R31" s="51">
+        <v>100</v>
+      </c>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="D32" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1">
+        <v>21.67</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="G32" s="1">
+        <v>833.33</v>
+      </c>
+      <c r="H32" s="1">
+        <v>266.67</v>
+      </c>
+      <c r="I32" s="1">
+        <v>113.33</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="L32" s="1">
+        <v>283.33</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>80</v>
+      </c>
+      <c r="R32" s="1">
+        <v>33.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8435D20D-942F-455A-B057-2DD8C4A2B19D}">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="G1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1451,75 +4277,75 @@
         <v>25</v>
       </c>
       <c r="Z2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AC2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AD2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AE2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AF2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AH2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AI2" s="45" t="s">
         <v>33</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
       <c r="K3" s="37"/>
       <c r="L3" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="37"/>
       <c r="N3" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="38"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T3" s="39"/>
       <c r="U3" s="39"/>
@@ -1528,21 +4354,27 @@
       <c r="X3" s="39"/>
       <c r="Y3" s="39"/>
       <c r="Z3" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA3" s="31"/>
       <c r="AB3" s="31"/>
-      <c r="AC3" s="32"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="46"/>
     </row>
     <row r="4" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="26">
         <v>5000</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1611,32 +4443,36 @@
         <v>0</v>
       </c>
       <c r="Z4" s="1">
+        <f>4*S4</f>
+        <v>8</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>9*T4</f>
         <v>1.8</v>
       </c>
-      <c r="AA4" s="1">
-        <v>8</v>
-      </c>
       <c r="AB4" s="1">
+        <f>(3.75*U4)+(2*V4)+(2.4*W4)+(3*X4)+(7*Y4)</f>
         <v>145.875</v>
       </c>
       <c r="AC4" s="27">
+        <f>SUM(Z4:AB4)</f>
         <v>155.67500000000001</v>
       </c>
       <c r="AD4" s="1">
-        <f>AA4-0.13*AC4</f>
+        <f>Z4-0.13*AC4</f>
         <v>-12.237750000000002</v>
       </c>
       <c r="AE4" s="1">
+        <f>Z4-0.2*AC4</f>
+        <v>-23.135000000000005</v>
+      </c>
+      <c r="AF4" s="1">
         <f>AA4-0.2*AC4</f>
-        <v>-23.135000000000005</v>
-      </c>
-      <c r="AF4" s="1">
-        <f>Z4-0.2*AC4</f>
         <v>-29.335000000000004</v>
       </c>
       <c r="AG4" s="1">
         <f>AA4-0.3*AC4</f>
-        <v>-38.702500000000001</v>
+        <v>-44.902500000000003</v>
       </c>
       <c r="AH4" s="1">
         <f>AB4-0.5*AC4</f>
@@ -1649,13 +4485,13 @@
     </row>
     <row r="5" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="26">
         <v>1000</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1724,51 +4560,55 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1">
+        <f t="shared" ref="Z5:Z30" si="0">4*S5</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5:AA30" si="1">9*T5</f>
         <v>2.6999999999999997</v>
       </c>
-      <c r="AA5" s="1">
-        <v>9.1999999999999993</v>
-      </c>
       <c r="AB5" s="1">
+        <f t="shared" ref="AB5:AB30" si="2">(3.75*U5)+(2*V5)+(2.4*W5)+(3*X5)+(7*Y5)</f>
         <v>82.85</v>
       </c>
       <c r="AC5" s="27">
+        <f t="shared" ref="AC5:AC30" si="3">SUM(Z5:AB5)</f>
         <v>94.75</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" ref="AD5:AD30" si="0">AA5-0.13*AC5</f>
+        <f t="shared" ref="AD5:AD30" si="4">Z5-0.13*AC5</f>
         <v>-3.1175000000000015</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AE30" si="1">AA5-0.2*AC5</f>
+        <f t="shared" ref="AE5:AE30" si="5">Z5-0.2*AC5</f>
         <v>-9.75</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF30" si="2">Z5-0.2*AC5</f>
+        <f t="shared" ref="AF5:AF30" si="6">AA5-0.2*AC5</f>
         <v>-16.25</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" ref="AG5:AG30" si="3">AA5-0.3*AC5</f>
-        <v>-19.225000000000001</v>
+        <f t="shared" ref="AG5:AG30" si="7">AA5-0.3*AC5</f>
+        <v>-25.725000000000001</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" ref="AH5:AH30" si="4">AB5-0.5*AC5</f>
+        <f t="shared" ref="AH5:AH30" si="8">AB5-0.5*AC5</f>
         <v>35.474999999999994</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" ref="AI5:AI30" si="5">AB5-0.65*AC5</f>
+        <f t="shared" ref="AI5:AI30" si="9">AB5-0.65*AC5</f>
         <v>21.262499999999996</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="26">
         <v>1000</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <v>180</v>
@@ -1837,51 +4677,55 @@
         <v>0</v>
       </c>
       <c r="Z6" s="1">
+        <f t="shared" si="0"/>
+        <v>21.2</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
-      <c r="AA6" s="1">
-        <v>21.2</v>
-      </c>
       <c r="AB6" s="1">
+        <f t="shared" si="2"/>
         <v>123.375</v>
       </c>
       <c r="AC6" s="27">
+        <f t="shared" si="3"/>
         <v>150.875</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5862499999999997</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-8.9750000000000014</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-23.875</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="3"/>
-        <v>-24.062499999999996</v>
+        <f t="shared" si="7"/>
+        <v>-38.962499999999999</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>47.9375</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25.306249999999991</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="26">
         <v>1000</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1">
         <v>180</v>
@@ -1950,51 +4794,55 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
+        <f t="shared" si="0"/>
+        <v>18.8</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="AA7" s="1">
-        <v>18.8</v>
-      </c>
       <c r="AB7" s="1">
+        <f t="shared" si="2"/>
         <v>132.67999999999998</v>
       </c>
       <c r="AC7" s="27">
+        <f t="shared" si="3"/>
         <v>164.97999999999996</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.647399999999994</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-14.195999999999994</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-19.495999999999995</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="3"/>
-        <v>-30.693999999999985</v>
+        <f t="shared" si="7"/>
+        <v>-35.993999999999986</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>50.19</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25.442999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="26">
         <v>100</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>114</v>
@@ -2063,51 +4911,55 @@
         <v>0</v>
       </c>
       <c r="Z8" s="1">
+        <f t="shared" si="0"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="AA8" s="1">
-        <v>68.400000000000006</v>
-      </c>
       <c r="AB8" s="1">
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
       <c r="AC8" s="27">
+        <f t="shared" si="3"/>
         <v>231.52500000000001</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38.301750000000006</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>22.094999999999999</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>115.69499999999999</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.0574999999999903</v>
+        <f t="shared" si="7"/>
+        <v>92.542500000000004</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-114.6375</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-149.36625000000001</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="26">
         <v>100</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1">
         <v>142</v>
@@ -2176,51 +5028,55 @@
         <v>0</v>
       </c>
       <c r="Z9" s="1">
+        <f t="shared" si="0"/>
+        <v>54.8</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="1"/>
         <v>222.29999999999998</v>
       </c>
-      <c r="AA9" s="1">
-        <v>54.8</v>
-      </c>
       <c r="AB9" s="1">
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="AC9" s="27">
+        <f t="shared" si="3"/>
         <v>293.59999999999997</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16.631999999999998</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-3.9200000000000017</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>163.57999999999998</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="3"/>
-        <v>-33.279999999999987</v>
+        <f t="shared" si="7"/>
+        <v>134.22</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-130.29999999999998</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-174.33999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="26">
         <v>100</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1">
         <v>156</v>
@@ -2289,51 +5145,55 @@
         <v>0</v>
       </c>
       <c r="Z10" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="AA10" s="1">
-        <v>50</v>
-      </c>
       <c r="AB10" s="1">
+        <f t="shared" si="2"/>
         <v>14.625</v>
       </c>
       <c r="AC10" s="27">
+        <f t="shared" si="3"/>
         <v>379.625</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.64874999999999972</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-25.924999999999997</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>239.07499999999999</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="3"/>
-        <v>-63.887500000000003</v>
+        <f t="shared" si="7"/>
+        <v>201.11250000000001</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-175.1875</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-232.13124999999999</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="26">
         <v>100</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1">
         <v>139</v>
@@ -2402,51 +5262,55 @@
         <v>0</v>
       </c>
       <c r="Z11" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="1"/>
         <v>240.29999999999998</v>
       </c>
-      <c r="AA11" s="1">
-        <v>56</v>
-      </c>
       <c r="AB11" s="1">
+        <f t="shared" si="2"/>
         <v>15.374999999999998</v>
       </c>
       <c r="AC11" s="27">
+        <f t="shared" si="3"/>
         <v>311.67499999999995</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15.482250000000008</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-6.3349999999999937</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>177.96499999999997</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="3"/>
-        <v>-37.502499999999984</v>
+        <f t="shared" si="7"/>
+        <v>146.79750000000001</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-140.46249999999998</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-187.21374999999998</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="26">
         <v>100</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1">
         <v>176</v>
@@ -2515,51 +5379,55 @@
         <v>0</v>
       </c>
       <c r="Z12" s="1">
+        <f t="shared" si="0"/>
+        <v>44.4</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="1"/>
         <v>335.7</v>
       </c>
-      <c r="AA12" s="1">
-        <v>44.4</v>
-      </c>
       <c r="AB12" s="1">
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
       <c r="AC12" s="27">
+        <f t="shared" si="3"/>
         <v>381.22499999999997</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-5.1592500000000001</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-31.844999999999992</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>259.45499999999998</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="3"/>
-        <v>-69.967500000000001</v>
+        <f t="shared" si="7"/>
+        <v>221.33249999999998</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-189.48749999999998</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-246.67124999999999</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="26">
         <v>100</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>122</v>
@@ -2628,51 +5496,55 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="1"/>
         <v>113.39999999999999</v>
       </c>
-      <c r="AA13" s="1">
-        <v>64</v>
-      </c>
       <c r="AB13" s="1">
+        <f t="shared" si="2"/>
         <v>17.25</v>
       </c>
       <c r="AC13" s="27">
+        <f t="shared" si="3"/>
         <v>194.64999999999998</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38.695500000000003</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>25.07</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>74.47</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="3"/>
-        <v>5.6050000000000111</v>
+        <f t="shared" si="7"/>
+        <v>55.005000000000003</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-80.074999999999989</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-109.27249999999999</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="26">
         <v>100</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1">
         <v>130</v>
@@ -2741,51 +5613,55 @@
         <v>0</v>
       </c>
       <c r="Z14" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="1"/>
         <v>143.1</v>
       </c>
-      <c r="AA14" s="1">
-        <v>60</v>
-      </c>
       <c r="AB14" s="1">
+        <f t="shared" si="2"/>
         <v>15.75</v>
       </c>
       <c r="AC14" s="27">
+        <f t="shared" si="3"/>
         <v>218.85</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>31.549499999999998</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16.229999999999997</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>99.329999999999984</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="3"/>
-        <v>-5.6550000000000011</v>
+        <f t="shared" si="7"/>
+        <v>77.444999999999993</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-93.674999999999997</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-126.5025</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="26">
         <v>100</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1">
         <v>127</v>
@@ -2854,51 +5730,55 @@
         <v>0</v>
       </c>
       <c r="Z15" s="1">
+        <f t="shared" si="0"/>
+        <v>61.2</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="1"/>
         <v>153.9</v>
       </c>
-      <c r="AA15" s="1">
-        <v>61.2</v>
-      </c>
       <c r="AB15" s="1">
+        <f t="shared" si="2"/>
         <v>17.25</v>
       </c>
       <c r="AC15" s="27">
+        <f t="shared" si="3"/>
         <v>232.35000000000002</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>30.994499999999999</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.729999999999997</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>107.43</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="3"/>
-        <v>-8.5049999999999955</v>
+        <f t="shared" si="7"/>
+        <v>84.195000000000007</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-98.925000000000011</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-133.77750000000003</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="26">
         <v>100</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
         <v>110</v>
@@ -2967,51 +5847,55 @@
         <v>0</v>
       </c>
       <c r="Z16" s="1">
+        <f t="shared" si="0"/>
+        <v>70.8</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="1"/>
         <v>90.899999999999991</v>
       </c>
-      <c r="AA16" s="1">
-        <v>70.8</v>
-      </c>
       <c r="AB16" s="1">
+        <f t="shared" si="2"/>
         <v>14.25</v>
       </c>
       <c r="AC16" s="27">
+        <f t="shared" si="3"/>
         <v>175.95</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>47.926499999999997</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>35.61</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>55.709999999999994</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="3"/>
-        <v>18.015000000000001</v>
+        <f t="shared" si="7"/>
+        <v>38.114999999999995</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-73.724999999999994</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-100.11749999999999</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="26">
         <v>100</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>105</v>
@@ -3080,51 +5964,55 @@
         <v>0</v>
       </c>
       <c r="Z17" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="AA17" s="1">
-        <v>74</v>
-      </c>
       <c r="AB17" s="1">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="AC17" s="27">
+        <f t="shared" si="3"/>
         <v>200.75</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>47.902500000000003</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33.849999999999994</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>85.85</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="3"/>
-        <v>13.775000000000006</v>
+        <f t="shared" si="7"/>
+        <v>65.775000000000006</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-99.625</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-129.73750000000001</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="26">
         <v>100</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1">
         <v>133</v>
@@ -3193,51 +6081,55 @@
         <v>0</v>
       </c>
       <c r="Z18" s="1">
+        <f t="shared" si="0"/>
+        <v>58.8</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="1"/>
         <v>165.6</v>
       </c>
-      <c r="AA18" s="1">
-        <v>58.8</v>
-      </c>
       <c r="AB18" s="1">
+        <f t="shared" si="2"/>
         <v>12.75</v>
       </c>
       <c r="AC18" s="27">
+        <f t="shared" si="3"/>
         <v>237.14999999999998</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27.970499999999998</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11.369999999999997</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>118.16999999999999</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="3"/>
-        <v>-12.344999999999999</v>
+        <f t="shared" si="7"/>
+        <v>94.454999999999998</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-105.82499999999999</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-141.39749999999998</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="26">
         <v>100</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1">
         <v>113</v>
@@ -3306,51 +6198,55 @@
         <v>0</v>
       </c>
       <c r="Z19" s="1">
+        <f t="shared" si="0"/>
+        <v>68.8</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="1"/>
         <v>166.5</v>
       </c>
-      <c r="AA19" s="1">
-        <v>68.8</v>
-      </c>
       <c r="AB19" s="1">
+        <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
       <c r="AC19" s="27">
+        <f t="shared" si="3"/>
         <v>246.55</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>36.748499999999993</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19.489999999999995</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>117.19</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="3"/>
-        <v>-5.1650000000000063</v>
+        <f t="shared" si="7"/>
+        <v>92.534999999999997</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-112.02500000000001</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-149.00750000000002</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="26">
         <v>100</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1">
         <v>152</v>
@@ -3419,51 +6315,55 @@
         <v>0</v>
       </c>
       <c r="Z20" s="1">
+        <f t="shared" si="0"/>
+        <v>51.2</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="1"/>
         <v>314.09999999999997</v>
       </c>
-      <c r="AA20" s="1">
-        <v>51.2</v>
-      </c>
       <c r="AB20" s="1">
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="AC20" s="27">
+        <f t="shared" si="3"/>
         <v>365.67499999999995</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.6622500000000073</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-21.934999999999988</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>240.96499999999997</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="3"/>
-        <v>-58.502499999999984</v>
+        <f t="shared" si="7"/>
+        <v>204.39749999999998</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-182.46249999999998</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-237.31374999999997</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="26">
         <v>100</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1">
         <v>115</v>
@@ -3532,51 +6432,55 @@
         <v>0</v>
       </c>
       <c r="Z21" s="1">
+        <f t="shared" si="0"/>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="1"/>
         <v>85.5</v>
       </c>
-      <c r="AA21" s="1">
-        <v>67.599999999999994</v>
-      </c>
       <c r="AB21" s="1">
+        <f t="shared" si="2"/>
         <v>17.25</v>
       </c>
       <c r="AC21" s="27">
+        <f t="shared" si="3"/>
         <v>170.35</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>45.454499999999996</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33.529999999999994</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>51.43</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="3"/>
-        <v>16.494999999999997</v>
+        <f t="shared" si="7"/>
+        <v>34.395000000000003</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-67.924999999999997</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-93.477500000000006</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="26">
         <v>100</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
         <v>125</v>
@@ -3645,51 +6549,55 @@
         <v>0</v>
       </c>
       <c r="Z22" s="1">
+        <f t="shared" si="0"/>
+        <v>62.4</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="1"/>
         <v>143.1</v>
       </c>
-      <c r="AA22" s="1">
-        <v>62.4</v>
-      </c>
       <c r="AB22" s="1">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AC22" s="27">
+        <f t="shared" si="3"/>
         <v>220.5</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>33.734999999999999</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.299999999999997</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.7499999999999929</v>
+        <f t="shared" si="7"/>
+        <v>76.95</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-95.25</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-128.32500000000002</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" s="26">
         <v>100</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
         <v>105</v>
@@ -3758,51 +6666,55 @@
         <v>0</v>
       </c>
       <c r="Z23" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="1"/>
         <v>29.7</v>
       </c>
-      <c r="AA23" s="1">
-        <v>74</v>
-      </c>
       <c r="AB23" s="1">
+        <f t="shared" si="2"/>
         <v>13.875</v>
       </c>
       <c r="AC23" s="27">
+        <f t="shared" si="3"/>
         <v>117.575</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>58.715249999999997</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>50.484999999999999</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.1849999999999987</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="3"/>
-        <v>38.727499999999999</v>
+        <f t="shared" si="7"/>
+        <v>-5.5725000000000016</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-44.912500000000001</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-62.548749999999998</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="26">
         <v>100</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1">
         <v>118</v>
@@ -3871,51 +6783,55 @@
         <v>0</v>
       </c>
       <c r="Z24" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="1"/>
         <v>123.3</v>
       </c>
-      <c r="AA24" s="1">
-        <v>66</v>
-      </c>
       <c r="AB24" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC24" s="27">
+        <f t="shared" si="3"/>
         <v>189.3</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41.390999999999998</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>28.139999999999993</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>85.44</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2100000000000009</v>
+        <f t="shared" si="7"/>
+        <v>66.509999999999991</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-94.65</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-123.04500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="26">
         <v>100</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1">
         <v>120</v>
@@ -3984,51 +6900,55 @@
         <v>0</v>
       </c>
       <c r="Z25" s="1">
+        <f t="shared" si="0"/>
+        <v>65.2</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="1"/>
         <v>141.29999999999998</v>
       </c>
-      <c r="AA25" s="1">
-        <v>65.2</v>
-      </c>
       <c r="AB25" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC25" s="27">
+        <f t="shared" si="3"/>
         <v>206.5</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38.355000000000004</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23.9</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>99.999999999999972</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2500000000000071</v>
+        <f t="shared" si="7"/>
+        <v>79.349999999999994</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-103.25</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-134.22499999999999</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="26">
         <v>100</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1">
         <v>117</v>
@@ -4097,51 +7017,55 @@
         <v>0</v>
       </c>
       <c r="Z26" s="1">
+        <f t="shared" si="0"/>
+        <v>66.8</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="1"/>
         <v>108.89999999999999</v>
       </c>
-      <c r="AA26" s="1">
-        <v>66.8</v>
-      </c>
       <c r="AB26" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC26" s="27">
+        <f t="shared" si="3"/>
         <v>175.7</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>43.959000000000003</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>31.659999999999997</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>73.759999999999991</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="3"/>
-        <v>14.090000000000003</v>
+        <f t="shared" si="7"/>
+        <v>56.19</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-87.85</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-114.205</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="26">
         <v>100</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1">
         <v>113</v>
@@ -4210,51 +7134,55 @@
         <v>0</v>
       </c>
       <c r="Z27" s="1">
+        <f t="shared" si="0"/>
+        <v>69.2</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
-      <c r="AA27" s="1">
-        <v>69.2</v>
-      </c>
       <c r="AB27" s="1">
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="AC27" s="27">
+        <f t="shared" si="3"/>
         <v>132.19999999999999</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52.014000000000003</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>42.760000000000005</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23.060000000000002</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="3"/>
-        <v>29.540000000000006</v>
+        <f t="shared" si="7"/>
+        <v>9.8400000000000034</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-52.599999999999994</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-72.429999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="26">
         <v>100</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1">
         <v>115</v>
@@ -4323,51 +7251,55 @@
         <v>0</v>
       </c>
       <c r="Z28" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="1"/>
         <v>121.5</v>
       </c>
-      <c r="AA28" s="1">
-        <v>68</v>
-      </c>
       <c r="AB28" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC28" s="27">
+        <f t="shared" si="3"/>
         <v>189.5</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>43.364999999999995</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>30.1</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>83.6</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="3"/>
-        <v>11.149999999999999</v>
+        <f t="shared" si="7"/>
+        <v>64.650000000000006</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-94.75</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-123.175</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B29" s="26">
         <v>100</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1">
         <v>99</v>
@@ -4436,51 +7368,55 @@
         <v>0</v>
       </c>
       <c r="Z29" s="1">
+        <f t="shared" si="0"/>
+        <v>78.8</v>
+      </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="AA29" s="1">
-        <v>78.8</v>
-      </c>
       <c r="AB29" s="1">
+        <f t="shared" si="2"/>
         <v>12.6</v>
       </c>
       <c r="AC29" s="27">
+        <f t="shared" si="3"/>
         <v>95.899999999999991</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>66.332999999999998</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>59.62</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-14.68</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="3"/>
-        <v>50.03</v>
+        <f t="shared" si="7"/>
+        <v>-24.269999999999996</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-35.349999999999994</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-49.734999999999992</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="26">
         <v>100</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="1">
         <v>134</v>
@@ -4549,39 +7485,43 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
+        <f t="shared" si="0"/>
+        <v>58.4</v>
+      </c>
+      <c r="AA30" s="1">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="AA30" s="1">
-        <v>58.4</v>
-      </c>
       <c r="AB30" s="1">
+        <f t="shared" si="2"/>
         <v>12.75</v>
       </c>
       <c r="AC30" s="27">
+        <f t="shared" si="3"/>
         <v>170.15</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>36.280499999999996</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>24.369999999999997</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64.97</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="3"/>
-        <v>7.3549999999999969</v>
+        <f t="shared" si="7"/>
+        <v>47.954999999999998</v>
       </c>
       <c r="AH30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-72.325000000000003</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-97.847500000000011</v>
       </c>
     </row>
@@ -4589,7 +7529,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="D31" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1">
         <v>65</v>
@@ -4638,7 +7578,7 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="D32" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32" s="1">
         <v>21.67</v>

--- a/backend/食品標準成分表示_主食・肉類.xlsx
+++ b/backend/食品標準成分表示_主食・肉類.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1F7446-B356-4268-BDA9-50B6F65ECB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8479F6D1-B309-4AB1-B910-CBAE7F2BF3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
   <si>
     <t>可　　食　　部　　 100　　g　　当　　た　　り</t>
   </si>
@@ -839,19 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -861,26 +848,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -927,28 +894,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,6 +952,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1014,7 +1016,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,7 +1065,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1105,14 +1107,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,62 +1167,38 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1524,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53B3E39-95ED-4142-9E14-53CE5E556F6C}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1621,16 +1632,16 @@
       <c r="R2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="60" t="s">
         <v>27</v>
       </c>
       <c r="W2" s="17" t="s">
@@ -1663,44 +1674,44 @@
       <c r="D3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="35" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="33" t="s">
+      <c r="M3" s="48"/>
+      <c r="N3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="37"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
@@ -1766,7 +1777,7 @@
       <c r="U4" s="1">
         <v>145.875</v>
       </c>
-      <c r="V4" s="40">
+      <c r="V4" s="54">
         <v>155.67500000000001</v>
       </c>
       <c r="W4" s="1">
@@ -1784,7 +1795,7 @@
       <c r="AA4" s="1">
         <v>68.037499999999994</v>
       </c>
-      <c r="AB4" s="55">
+      <c r="AB4" s="38">
         <v>44.686249999999987</v>
       </c>
     </row>
@@ -1852,7 +1863,7 @@
       <c r="U5" s="1">
         <v>82.85</v>
       </c>
-      <c r="V5" s="41">
+      <c r="V5" s="54">
         <v>94.75</v>
       </c>
       <c r="W5" s="1">
@@ -1870,7 +1881,7 @@
       <c r="AA5" s="1">
         <v>35.474999999999994</v>
       </c>
-      <c r="AB5" s="56">
+      <c r="AB5" s="39">
         <v>21.262499999999996</v>
       </c>
     </row>
@@ -1938,7 +1949,7 @@
       <c r="U6" s="1">
         <v>123.375</v>
       </c>
-      <c r="V6" s="41">
+      <c r="V6" s="54">
         <v>150.875</v>
       </c>
       <c r="W6" s="1">
@@ -1956,7 +1967,7 @@
       <c r="AA6" s="1">
         <v>47.9375</v>
       </c>
-      <c r="AB6" s="56">
+      <c r="AB6" s="39">
         <v>25.306249999999991</v>
       </c>
     </row>
@@ -2024,7 +2035,7 @@
       <c r="U7" s="1">
         <v>132.67999999999998</v>
       </c>
-      <c r="V7" s="41">
+      <c r="V7" s="54">
         <v>164.97999999999996</v>
       </c>
       <c r="W7" s="1">
@@ -2042,7 +2053,7 @@
       <c r="AA7" s="1">
         <v>50.19</v>
       </c>
-      <c r="AB7" s="56">
+      <c r="AB7" s="39">
         <v>25.442999999999998</v>
       </c>
     </row>
@@ -2110,7 +2121,7 @@
       <c r="U8" s="1">
         <v>1.125</v>
       </c>
-      <c r="V8" s="41">
+      <c r="V8" s="54">
         <v>231.52500000000001</v>
       </c>
       <c r="W8" s="1">
@@ -2128,7 +2139,7 @@
       <c r="AA8" s="1">
         <v>-114.6375</v>
       </c>
-      <c r="AB8" s="56">
+      <c r="AB8" s="39">
         <v>-149.36625000000001</v>
       </c>
     </row>
@@ -2196,7 +2207,7 @@
       <c r="U9" s="1">
         <v>16.5</v>
       </c>
-      <c r="V9" s="41">
+      <c r="V9" s="54">
         <v>293.59999999999997</v>
       </c>
       <c r="W9" s="1">
@@ -2214,7 +2225,7 @@
       <c r="AA9" s="1">
         <v>-130.29999999999998</v>
       </c>
-      <c r="AB9" s="56">
+      <c r="AB9" s="39">
         <v>-174.33999999999997</v>
       </c>
     </row>
@@ -2282,7 +2293,7 @@
       <c r="U10" s="1">
         <v>14.625</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="54">
         <v>379.625</v>
       </c>
       <c r="W10" s="1">
@@ -2300,7 +2311,7 @@
       <c r="AA10" s="1">
         <v>-175.1875</v>
       </c>
-      <c r="AB10" s="56">
+      <c r="AB10" s="39">
         <v>-232.13124999999999</v>
       </c>
     </row>
@@ -2368,7 +2379,7 @@
       <c r="U11" s="1">
         <v>15.374999999999998</v>
       </c>
-      <c r="V11" s="41">
+      <c r="V11" s="54">
         <v>311.67499999999995</v>
       </c>
       <c r="W11" s="1">
@@ -2386,7 +2397,7 @@
       <c r="AA11" s="1">
         <v>-140.46249999999998</v>
       </c>
-      <c r="AB11" s="56">
+      <c r="AB11" s="39">
         <v>-187.21374999999998</v>
       </c>
     </row>
@@ -2454,7 +2465,7 @@
       <c r="U12" s="1">
         <v>1.125</v>
       </c>
-      <c r="V12" s="41">
+      <c r="V12" s="54">
         <v>381.22499999999997</v>
       </c>
       <c r="W12" s="1">
@@ -2472,7 +2483,7 @@
       <c r="AA12" s="1">
         <v>-189.48749999999998</v>
       </c>
-      <c r="AB12" s="56">
+      <c r="AB12" s="39">
         <v>-246.67124999999999</v>
       </c>
     </row>
@@ -2540,7 +2551,7 @@
       <c r="U13" s="1">
         <v>17.25</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="54">
         <v>194.64999999999998</v>
       </c>
       <c r="W13" s="1">
@@ -2558,7 +2569,7 @@
       <c r="AA13" s="1">
         <v>-80.074999999999989</v>
       </c>
-      <c r="AB13" s="56">
+      <c r="AB13" s="39">
         <v>-109.27249999999999</v>
       </c>
     </row>
@@ -2626,7 +2637,7 @@
       <c r="U14" s="1">
         <v>15.75</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="54">
         <v>218.85</v>
       </c>
       <c r="W14" s="1">
@@ -2644,7 +2655,7 @@
       <c r="AA14" s="1">
         <v>-93.674999999999997</v>
       </c>
-      <c r="AB14" s="56">
+      <c r="AB14" s="39">
         <v>-126.5025</v>
       </c>
     </row>
@@ -2712,7 +2723,7 @@
       <c r="U15" s="1">
         <v>17.25</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="54">
         <v>232.35000000000002</v>
       </c>
       <c r="W15" s="1">
@@ -2730,7 +2741,7 @@
       <c r="AA15" s="1">
         <v>-98.925000000000011</v>
       </c>
-      <c r="AB15" s="56">
+      <c r="AB15" s="39">
         <v>-133.77750000000003</v>
       </c>
     </row>
@@ -2798,7 +2809,7 @@
       <c r="U16" s="1">
         <v>14.25</v>
       </c>
-      <c r="V16" s="41">
+      <c r="V16" s="54">
         <v>175.95</v>
       </c>
       <c r="W16" s="1">
@@ -2816,7 +2827,7 @@
       <c r="AA16" s="1">
         <v>-73.724999999999994</v>
       </c>
-      <c r="AB16" s="56">
+      <c r="AB16" s="39">
         <v>-100.11749999999999</v>
       </c>
     </row>
@@ -2884,7 +2895,7 @@
       <c r="U17" s="1">
         <v>0.75</v>
       </c>
-      <c r="V17" s="41">
+      <c r="V17" s="54">
         <v>200.75</v>
       </c>
       <c r="W17" s="1">
@@ -2902,7 +2913,7 @@
       <c r="AA17" s="1">
         <v>-99.625</v>
       </c>
-      <c r="AB17" s="56">
+      <c r="AB17" s="39">
         <v>-129.73750000000001</v>
       </c>
     </row>
@@ -2970,7 +2981,7 @@
       <c r="U18" s="1">
         <v>12.75</v>
       </c>
-      <c r="V18" s="41">
+      <c r="V18" s="54">
         <v>237.14999999999998</v>
       </c>
       <c r="W18" s="1">
@@ -2988,7 +2999,7 @@
       <c r="AA18" s="1">
         <v>-105.82499999999999</v>
       </c>
-      <c r="AB18" s="56">
+      <c r="AB18" s="39">
         <v>-141.39749999999998</v>
       </c>
     </row>
@@ -3056,7 +3067,7 @@
       <c r="U19" s="1">
         <v>11.25</v>
       </c>
-      <c r="V19" s="41">
+      <c r="V19" s="54">
         <v>246.55</v>
       </c>
       <c r="W19" s="1">
@@ -3074,7 +3085,7 @@
       <c r="AA19" s="1">
         <v>-112.02500000000001</v>
       </c>
-      <c r="AB19" s="56">
+      <c r="AB19" s="39">
         <v>-149.00750000000002</v>
       </c>
     </row>
@@ -3142,7 +3153,7 @@
       <c r="U20" s="1">
         <v>0.375</v>
       </c>
-      <c r="V20" s="41">
+      <c r="V20" s="54">
         <v>365.67499999999995</v>
       </c>
       <c r="W20" s="1">
@@ -3160,7 +3171,7 @@
       <c r="AA20" s="1">
         <v>-182.46249999999998</v>
       </c>
-      <c r="AB20" s="56">
+      <c r="AB20" s="39">
         <v>-237.31374999999997</v>
       </c>
     </row>
@@ -3228,7 +3239,7 @@
       <c r="U21" s="1">
         <v>17.25</v>
       </c>
-      <c r="V21" s="41">
+      <c r="V21" s="54">
         <v>170.35</v>
       </c>
       <c r="W21" s="1">
@@ -3246,7 +3257,7 @@
       <c r="AA21" s="1">
         <v>-67.924999999999997</v>
       </c>
-      <c r="AB21" s="56">
+      <c r="AB21" s="39">
         <v>-93.477500000000006</v>
       </c>
     </row>
@@ -3314,7 +3325,7 @@
       <c r="U22" s="1">
         <v>15</v>
       </c>
-      <c r="V22" s="41">
+      <c r="V22" s="54">
         <v>220.5</v>
       </c>
       <c r="W22" s="1">
@@ -3332,7 +3343,7 @@
       <c r="AA22" s="1">
         <v>-95.25</v>
       </c>
-      <c r="AB22" s="56">
+      <c r="AB22" s="39">
         <v>-128.32500000000002</v>
       </c>
     </row>
@@ -3400,7 +3411,7 @@
       <c r="U23" s="1">
         <v>13.875</v>
       </c>
-      <c r="V23" s="41">
+      <c r="V23" s="54">
         <v>117.575</v>
       </c>
       <c r="W23" s="1">
@@ -3418,7 +3429,7 @@
       <c r="AA23" s="1">
         <v>-44.912500000000001</v>
       </c>
-      <c r="AB23" s="56">
+      <c r="AB23" s="39">
         <v>-62.548749999999998</v>
       </c>
     </row>
@@ -3486,7 +3497,7 @@
       <c r="U24" s="1">
         <v>0</v>
       </c>
-      <c r="V24" s="41">
+      <c r="V24" s="54">
         <v>189.3</v>
       </c>
       <c r="W24" s="1">
@@ -3504,7 +3515,7 @@
       <c r="AA24" s="1">
         <v>-94.65</v>
       </c>
-      <c r="AB24" s="56">
+      <c r="AB24" s="39">
         <v>-123.04500000000002</v>
       </c>
     </row>
@@ -3572,7 +3583,7 @@
       <c r="U25" s="1">
         <v>0</v>
       </c>
-      <c r="V25" s="41">
+      <c r="V25" s="54">
         <v>206.5</v>
       </c>
       <c r="W25" s="1">
@@ -3590,7 +3601,7 @@
       <c r="AA25" s="1">
         <v>-103.25</v>
       </c>
-      <c r="AB25" s="56">
+      <c r="AB25" s="39">
         <v>-134.22499999999999</v>
       </c>
     </row>
@@ -3658,7 +3669,7 @@
       <c r="U26" s="1">
         <v>0</v>
       </c>
-      <c r="V26" s="41">
+      <c r="V26" s="54">
         <v>175.7</v>
       </c>
       <c r="W26" s="1">
@@ -3676,7 +3687,7 @@
       <c r="AA26" s="1">
         <v>-87.85</v>
       </c>
-      <c r="AB26" s="56">
+      <c r="AB26" s="39">
         <v>-114.205</v>
       </c>
     </row>
@@ -3744,7 +3755,7 @@
       <c r="U27" s="1">
         <v>13.5</v>
       </c>
-      <c r="V27" s="41">
+      <c r="V27" s="54">
         <v>132.19999999999999</v>
       </c>
       <c r="W27" s="1">
@@ -3762,7 +3773,7 @@
       <c r="AA27" s="1">
         <v>-52.599999999999994</v>
       </c>
-      <c r="AB27" s="56">
+      <c r="AB27" s="39">
         <v>-72.429999999999993</v>
       </c>
     </row>
@@ -3830,7 +3841,7 @@
       <c r="U28" s="1">
         <v>0</v>
       </c>
-      <c r="V28" s="41">
+      <c r="V28" s="54">
         <v>189.5</v>
       </c>
       <c r="W28" s="1">
@@ -3848,7 +3859,7 @@
       <c r="AA28" s="1">
         <v>-94.75</v>
       </c>
-      <c r="AB28" s="56">
+      <c r="AB28" s="39">
         <v>-123.175</v>
       </c>
     </row>
@@ -3916,7 +3927,7 @@
       <c r="U29" s="1">
         <v>12.6</v>
       </c>
-      <c r="V29" s="41">
+      <c r="V29" s="54">
         <v>95.899999999999991</v>
       </c>
       <c r="W29" s="1">
@@ -3934,203 +3945,94 @@
       <c r="AA29" s="1">
         <v>-35.349999999999994</v>
       </c>
-      <c r="AB29" s="56">
+      <c r="AB29" s="39">
         <v>-49.734999999999992</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="41">
         <v>100</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="42">
         <v>134</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="42">
         <v>14.6</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F30" s="42">
+        <v>0</v>
+      </c>
+      <c r="G30" s="42">
         <v>250</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="42">
         <v>8</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="42">
         <v>24</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="42">
         <v>0.8</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="42">
         <v>37</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="42">
         <v>0.1</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="42">
         <v>0.09</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="42">
         <v>0.17</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="42">
         <v>0.52</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="42">
         <v>10</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R30" s="43">
         <v>1</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="53">
         <v>58.4</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30" s="42">
         <v>99</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="42">
         <v>12.75</v>
       </c>
-      <c r="V30" s="41">
+      <c r="V30" s="55">
         <v>170.15</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W30" s="42">
         <v>36.280499999999996</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30" s="42">
         <v>24.369999999999997</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y30" s="42">
         <v>64.97</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Z30" s="42">
         <v>47.954999999999998</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AA30" s="42">
         <v>-72.325000000000003</v>
       </c>
-      <c r="AB30" s="57">
+      <c r="AB30" s="40">
         <v>-97.847500000000011</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="49">
-        <v>65</v>
-      </c>
-      <c r="F31" s="51">
-        <v>20</v>
-      </c>
-      <c r="G31" s="51">
-        <v>2500</v>
-      </c>
-      <c r="H31" s="51">
-        <v>800</v>
-      </c>
-      <c r="I31" s="51">
-        <v>340</v>
-      </c>
-      <c r="J31" s="51">
-        <v>7.5</v>
-      </c>
-      <c r="K31" s="51">
-        <v>11</v>
-      </c>
-      <c r="L31" s="51">
-        <v>850</v>
-      </c>
-      <c r="M31" s="51">
-        <v>9</v>
-      </c>
-      <c r="N31" s="51">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O31" s="51">
-        <v>1.6</v>
-      </c>
-      <c r="P31" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="Q31" s="51">
-        <v>240</v>
-      </c>
-      <c r="R31" s="51">
-        <v>100</v>
-      </c>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="D32" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="1">
-        <v>21.67</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6.67</v>
-      </c>
-      <c r="G32" s="1">
-        <v>833.33</v>
-      </c>
-      <c r="H32" s="1">
-        <v>266.67</v>
-      </c>
-      <c r="I32" s="1">
-        <v>113.33</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="K32" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="L32" s="1">
-        <v>283.33</v>
-      </c>
-      <c r="M32" s="1">
-        <v>3</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>80</v>
-      </c>
-      <c r="R32" s="1">
-        <v>33.33</v>
       </c>
     </row>
   </sheetData>
@@ -4150,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8435D20D-942F-455A-B057-2DD8C4A2B19D}">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView topLeftCell="G2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4288,22 +4190,22 @@
       <c r="AC2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AD2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="45" t="s">
+      <c r="AI2" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4318,53 +4220,53 @@
       <c r="D3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="35" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="33" t="s">
+      <c r="M3" s="48"/>
+      <c r="N3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="30" t="s">
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="47"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="35"/>
       <c r="AE3" s="21"/>
       <c r="AF3" s="21"/>
       <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
-      <c r="AI3" s="46"/>
+      <c r="AI3" s="34"/>
     </row>
     <row r="4" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">

--- a/backend/食品標準成分表示_主食・肉類.xlsx
+++ b/backend/食品標準成分表示_主食・肉類.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8479F6D1-B309-4AB1-B910-CBAE7F2BF3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2C8F1C-6936-4238-AE4D-D68D55C99FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
+    <workbookView xWindow="3740" yWindow="1580" windowWidth="16920" windowHeight="10540" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
   </bookViews>
   <sheets>
     <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>
@@ -1149,6 +1149,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,9 +1183,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1175,30 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1537,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53B3E39-95ED-4142-9E14-53CE5E556F6C}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1632,16 +1632,16 @@
       <c r="R2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="59" t="s">
+      <c r="T2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="59" t="s">
+      <c r="U2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="60" t="s">
+      <c r="V2" s="49" t="s">
         <v>27</v>
       </c>
       <c r="W2" s="17" t="s">
@@ -1674,38 +1674,38 @@
       <c r="D3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="44" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54"/>
       <c r="Q3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="57"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
       <c r="W3" s="36"/>
       <c r="X3" s="36"/>
       <c r="Y3" s="36"/>
@@ -1777,7 +1777,7 @@
       <c r="U4" s="1">
         <v>145.875</v>
       </c>
-      <c r="V4" s="54">
+      <c r="V4" s="45">
         <v>155.67500000000001</v>
       </c>
       <c r="W4" s="1">
@@ -1863,7 +1863,7 @@
       <c r="U5" s="1">
         <v>82.85</v>
       </c>
-      <c r="V5" s="54">
+      <c r="V5" s="45">
         <v>94.75</v>
       </c>
       <c r="W5" s="1">
@@ -1949,7 +1949,7 @@
       <c r="U6" s="1">
         <v>123.375</v>
       </c>
-      <c r="V6" s="54">
+      <c r="V6" s="45">
         <v>150.875</v>
       </c>
       <c r="W6" s="1">
@@ -2035,7 +2035,7 @@
       <c r="U7" s="1">
         <v>132.67999999999998</v>
       </c>
-      <c r="V7" s="54">
+      <c r="V7" s="45">
         <v>164.97999999999996</v>
       </c>
       <c r="W7" s="1">
@@ -2068,7 +2068,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="1">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
         <v>17.100000000000001</v>
@@ -2121,7 +2121,7 @@
       <c r="U8" s="1">
         <v>1.125</v>
       </c>
-      <c r="V8" s="54">
+      <c r="V8" s="45">
         <v>231.52500000000001</v>
       </c>
       <c r="W8" s="1">
@@ -2154,7 +2154,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="1">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
         <v>13.7</v>
@@ -2207,7 +2207,7 @@
       <c r="U9" s="1">
         <v>16.5</v>
       </c>
-      <c r="V9" s="54">
+      <c r="V9" s="45">
         <v>293.59999999999997</v>
       </c>
       <c r="W9" s="1">
@@ -2240,7 +2240,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="1">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1">
         <v>12.5</v>
@@ -2293,7 +2293,7 @@
       <c r="U10" s="1">
         <v>14.625</v>
       </c>
-      <c r="V10" s="54">
+      <c r="V10" s="45">
         <v>379.625</v>
       </c>
       <c r="W10" s="1">
@@ -2326,7 +2326,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
         <v>14</v>
@@ -2379,7 +2379,7 @@
       <c r="U11" s="1">
         <v>15.374999999999998</v>
       </c>
-      <c r="V11" s="54">
+      <c r="V11" s="45">
         <v>311.67499999999995</v>
       </c>
       <c r="W11" s="1">
@@ -2412,7 +2412,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="1">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
         <v>11.1</v>
@@ -2465,7 +2465,7 @@
       <c r="U12" s="1">
         <v>1.125</v>
       </c>
-      <c r="V12" s="54">
+      <c r="V12" s="45">
         <v>381.22499999999997</v>
       </c>
       <c r="W12" s="1">
@@ -2498,7 +2498,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="1">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1">
         <v>16</v>
@@ -2551,7 +2551,7 @@
       <c r="U13" s="1">
         <v>17.25</v>
       </c>
-      <c r="V13" s="54">
+      <c r="V13" s="45">
         <v>194.64999999999998</v>
       </c>
       <c r="W13" s="1">
@@ -2584,7 +2584,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>15</v>
@@ -2637,7 +2637,7 @@
       <c r="U14" s="1">
         <v>15.75</v>
       </c>
-      <c r="V14" s="54">
+      <c r="V14" s="45">
         <v>218.85</v>
       </c>
       <c r="W14" s="1">
@@ -2670,7 +2670,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1">
         <v>15.3</v>
@@ -2723,7 +2723,7 @@
       <c r="U15" s="1">
         <v>17.25</v>
       </c>
-      <c r="V15" s="54">
+      <c r="V15" s="45">
         <v>232.35000000000002</v>
       </c>
       <c r="W15" s="1">
@@ -2756,7 +2756,7 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1">
         <v>17.7</v>
@@ -2809,7 +2809,7 @@
       <c r="U16" s="1">
         <v>14.25</v>
       </c>
-      <c r="V16" s="54">
+      <c r="V16" s="45">
         <v>175.95</v>
       </c>
       <c r="W16" s="1">
@@ -2842,7 +2842,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
         <v>18.5</v>
@@ -2895,7 +2895,7 @@
       <c r="U17" s="1">
         <v>0.75</v>
       </c>
-      <c r="V17" s="54">
+      <c r="V17" s="45">
         <v>200.75</v>
       </c>
       <c r="W17" s="1">
@@ -2928,7 +2928,7 @@
         <v>70</v>
       </c>
       <c r="D18" s="1">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1">
         <v>14.7</v>
@@ -2981,7 +2981,7 @@
       <c r="U18" s="1">
         <v>12.75</v>
       </c>
-      <c r="V18" s="54">
+      <c r="V18" s="45">
         <v>237.14999999999998</v>
       </c>
       <c r="W18" s="1">
@@ -3014,7 +3014,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="1">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>17.2</v>
@@ -3067,7 +3067,7 @@
       <c r="U19" s="1">
         <v>11.25</v>
       </c>
-      <c r="V19" s="54">
+      <c r="V19" s="45">
         <v>246.55</v>
       </c>
       <c r="W19" s="1">
@@ -3100,7 +3100,7 @@
         <v>74</v>
       </c>
       <c r="D20" s="1">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
         <v>12.8</v>
@@ -3153,7 +3153,7 @@
       <c r="U20" s="1">
         <v>0.375</v>
       </c>
-      <c r="V20" s="54">
+      <c r="V20" s="45">
         <v>365.67499999999995</v>
       </c>
       <c r="W20" s="1">
@@ -3186,7 +3186,7 @@
         <v>76</v>
       </c>
       <c r="D21" s="1">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>16.899999999999999</v>
@@ -3239,7 +3239,7 @@
       <c r="U21" s="1">
         <v>17.25</v>
       </c>
-      <c r="V21" s="54">
+      <c r="V21" s="45">
         <v>170.35</v>
       </c>
       <c r="W21" s="1">
@@ -3272,7 +3272,7 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
         <v>15.6</v>
@@ -3325,7 +3325,7 @@
       <c r="U22" s="1">
         <v>15</v>
       </c>
-      <c r="V22" s="54">
+      <c r="V22" s="45">
         <v>220.5</v>
       </c>
       <c r="W22" s="1">
@@ -3358,7 +3358,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1">
         <v>18.5</v>
@@ -3411,7 +3411,7 @@
       <c r="U23" s="1">
         <v>13.875</v>
       </c>
-      <c r="V23" s="54">
+      <c r="V23" s="45">
         <v>117.575</v>
       </c>
       <c r="W23" s="1">
@@ -3444,7 +3444,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1">
         <v>16.5</v>
@@ -3497,7 +3497,7 @@
       <c r="U24" s="1">
         <v>0</v>
       </c>
-      <c r="V24" s="54">
+      <c r="V24" s="45">
         <v>189.3</v>
       </c>
       <c r="W24" s="1">
@@ -3530,7 +3530,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1">
         <v>16.3</v>
@@ -3583,7 +3583,7 @@
       <c r="U25" s="1">
         <v>0</v>
       </c>
-      <c r="V25" s="54">
+      <c r="V25" s="45">
         <v>206.5</v>
       </c>
       <c r="W25" s="1">
@@ -3616,7 +3616,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1">
         <v>16.7</v>
@@ -3669,7 +3669,7 @@
       <c r="U26" s="1">
         <v>0</v>
       </c>
-      <c r="V26" s="54">
+      <c r="V26" s="45">
         <v>175.7</v>
       </c>
       <c r="W26" s="1">
@@ -3702,7 +3702,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="1">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1">
         <v>17.3</v>
@@ -3755,7 +3755,7 @@
       <c r="U27" s="1">
         <v>13.5</v>
       </c>
-      <c r="V27" s="54">
+      <c r="V27" s="45">
         <v>132.19999999999999</v>
       </c>
       <c r="W27" s="1">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1">
         <v>17</v>
@@ -3841,7 +3841,7 @@
       <c r="U28" s="1">
         <v>0</v>
       </c>
-      <c r="V28" s="54">
+      <c r="V28" s="45">
         <v>189.5</v>
       </c>
       <c r="W28" s="1">
@@ -3874,7 +3874,7 @@
         <v>92</v>
       </c>
       <c r="D29" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1">
         <v>19.7</v>
@@ -3927,7 +3927,7 @@
       <c r="U29" s="1">
         <v>12.6</v>
       </c>
-      <c r="V29" s="54">
+      <c r="V29" s="45">
         <v>95.899999999999991</v>
       </c>
       <c r="W29" s="1">
@@ -3960,7 +3960,7 @@
         <v>94</v>
       </c>
       <c r="D30" s="42">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E30" s="42">
         <v>14.6</v>
@@ -4004,7 +4004,7 @@
       <c r="R30" s="43">
         <v>1</v>
       </c>
-      <c r="S30" s="53">
+      <c r="S30" s="44">
         <v>58.4</v>
       </c>
       <c r="T30" s="42">
@@ -4013,7 +4013,7 @@
       <c r="U30" s="42">
         <v>12.75</v>
       </c>
-      <c r="V30" s="55">
+      <c r="V30" s="46">
         <v>170.15</v>
       </c>
       <c r="W30" s="42">
@@ -4220,47 +4220,47 @@
       <c r="D3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="44" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54"/>
       <c r="Q3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="50" t="s">
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="21"/>
       <c r="AF3" s="21"/>

--- a/backend/食品標準成分表示_主食・肉類.xlsx
+++ b/backend/食品標準成分表示_主食・肉類.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2C8F1C-6936-4238-AE4D-D68D55C99FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538842F9-5B75-4423-9180-405FA8F90B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="1580" windowWidth="16920" windowHeight="10540" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
+    <workbookView xWindow="10290" yWindow="1260" windowWidth="12330" windowHeight="10540" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
   </bookViews>
   <sheets>
     <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="119">
   <si>
     <t>可　　食　　部　　 100　　g　　当　　た　　り</t>
   </si>
@@ -550,6 +550,124 @@
     <t>脂質のエネルギー</t>
     <rPh sb="0" eb="2">
       <t>シシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e-statでのid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01052</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01203</t>
+  </si>
+  <si>
+    <t>01203</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01214</t>
+  </si>
+  <si>
+    <t>01214</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01221</t>
+  </si>
+  <si>
+    <t>01221</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示される食品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5kg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1kg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100g</t>
+  </si>
+  <si>
+    <t>100g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格の単位重量(計算用)</t>
+    <rPh sb="5" eb="7">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格の単位重量(表示用)</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛肉(輸入品,かたロース)</t>
+    <rPh sb="3" eb="5">
+      <t>ユニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚肉(輸入品,ロース)</t>
+    <rPh sb="3" eb="5">
+      <t>ユニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1016,7 +1134,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,6 +1284,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1535,36 +1668,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53B3E39-95ED-4142-9E14-53CE5E556F6C}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="13.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1576,144 +1706,154 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="199" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" ht="199" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
+      <c r="B2" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="U2" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="V2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="W2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="X2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AC2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="G3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="56"/>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="53" t="s">
+      <c r="O3" s="61"/>
+      <c r="P3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="62"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="U3" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="57"/>
       <c r="Y3" s="36"/>
       <c r="Z3" s="36"/>
       <c r="AA3" s="36"/>
-      <c r="AB3" s="37"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="37"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
@@ -1721,85 +1861,91 @@
         <v>5000</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>200</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>1.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>29</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>7</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>0.1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>0.6</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
       <c r="N4" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>0.02</v>
       </c>
       <c r="Q4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="1">
         <v>3</v>
       </c>
-      <c r="R4" s="27">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="T4" s="27">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <v>8</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <v>1.8</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>145.875</v>
       </c>
-      <c r="V4" s="45">
+      <c r="X4" s="45">
         <v>155.67500000000001</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>-12.23775</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <v>-23.135000000000005</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>-29.335000000000004</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AB4" s="1">
         <v>-44.902500000000003</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AC4" s="1">
         <v>68.037499999999994</v>
       </c>
-      <c r="AB4" s="38">
+      <c r="AD4" s="38">
         <v>44.686249999999987</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26" t="s">
         <v>43</v>
       </c>
@@ -1807,85 +1953,91 @@
         <v>1000</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>200</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>1.3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>9</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>0.2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>0.1</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.02</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>0.01</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>0.01</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>2</v>
       </c>
-      <c r="R5" s="27">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="T5" s="27">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <v>2.6999999999999997</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>82.85</v>
       </c>
-      <c r="V5" s="45">
+      <c r="X5" s="45">
         <v>94.75</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>-3.1175000000000015</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <v>-9.75</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>-16.25</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <v>-25.725000000000001</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <v>35.474999999999994</v>
       </c>
-      <c r="AB5" s="39">
+      <c r="AD5" s="39">
         <v>21.262499999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26" t="s">
         <v>45</v>
       </c>
@@ -1893,85 +2045,91 @@
         <v>1000</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>180</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>5.3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>8</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>20</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>0.7</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>0.7</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>0.06</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>0.03</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>0.02</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>4</v>
       </c>
-      <c r="R6" s="27">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="T6" s="27">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>21.2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <v>6.3</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>123.375</v>
       </c>
-      <c r="V6" s="45">
+      <c r="X6" s="45">
         <v>150.875</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <v>1.5862499999999997</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <v>-8.9750000000000014</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>-23.875</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <v>-38.962499999999999</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>47.9375</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AD6" s="39">
         <v>25.306249999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26" t="s">
         <v>47</v>
       </c>
@@ -1979,257 +2137,275 @@
         <v>1000</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>180</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>4.7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>3.1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>80</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>9</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>0.4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>0.2</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>0.16</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>0.02</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>4</v>
       </c>
-      <c r="R7" s="27">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="T7" s="27">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
         <v>18.8</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>13.5</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <v>132.67999999999998</v>
       </c>
-      <c r="V7" s="45">
+      <c r="X7" s="45">
         <v>164.97999999999996</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Y7" s="1">
         <v>-2.647399999999994</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Z7" s="1">
         <v>-14.195999999999994</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>-19.495999999999995</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AB7" s="1">
         <v>-35.993999999999986</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AC7" s="1">
         <v>50.19</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AD7" s="39">
         <v>25.442999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="26">
         <v>100</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
+        <v>114</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="E8" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
       <c r="G8" s="1">
-        <v>290</v>
+        <v>13.7</v>
       </c>
       <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>260</v>
+      </c>
+      <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="I8" s="1">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2.1</v>
-      </c>
       <c r="K8" s="1">
-        <v>4.5</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="N8" s="1">
-        <v>0.08</v>
+        <v>7</v>
       </c>
       <c r="O8" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P8" s="1">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="Q8" s="1">
-        <v>6</v>
-      </c>
-      <c r="R8" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="S8" s="1">
+        <v>7</v>
+      </c>
+      <c r="T8" s="27">
         <v>1</v>
       </c>
-      <c r="S8" s="1">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="T8" s="1">
-        <v>162</v>
-      </c>
       <c r="U8" s="1">
-        <v>1.125</v>
-      </c>
-      <c r="V8" s="45">
-        <v>231.52500000000001</v>
+        <v>54.8</v>
+      </c>
+      <c r="V8" s="1">
+        <v>222.29999999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>38.301750000000006</v>
-      </c>
-      <c r="X8" s="1">
-        <v>22.094999999999999</v>
+        <v>16.5</v>
+      </c>
+      <c r="X8" s="45">
+        <v>293.59999999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>115.69499999999999</v>
+        <v>16.631999999999998</v>
       </c>
       <c r="Z8" s="1">
-        <v>92.542500000000004</v>
+        <v>-3.9200000000000017</v>
       </c>
       <c r="AA8" s="1">
-        <v>-114.6375</v>
-      </c>
-      <c r="AB8" s="39">
-        <v>-149.36625000000001</v>
+        <v>163.57999999999998</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>134.22</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>-130.29999999999998</v>
+      </c>
+      <c r="AD8" s="39">
+        <v>-174.33999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="26">
         <v>100</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1">
+        <v>114</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
         <v>100</v>
       </c>
-      <c r="E9" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
       <c r="G9" s="1">
-        <v>260</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>290</v>
+      </c>
+      <c r="J9" s="1">
         <v>4</v>
       </c>
-      <c r="I9" s="1">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.9</v>
-      </c>
       <c r="K9" s="1">
-        <v>4.7</v>
+        <v>18</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="M9" s="1">
-        <v>0.1</v>
+        <v>4.5</v>
       </c>
       <c r="N9" s="1">
-        <v>0.06</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="Q9" s="1">
-        <v>7</v>
-      </c>
-      <c r="R9" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="S9" s="1">
+        <v>6</v>
+      </c>
+      <c r="T9" s="27">
         <v>1</v>
       </c>
-      <c r="S9" s="1">
-        <v>54.8</v>
-      </c>
-      <c r="T9" s="1">
-        <v>222.29999999999998</v>
-      </c>
       <c r="U9" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="V9" s="45">
-        <v>293.59999999999997</v>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="V9" s="1">
+        <v>162</v>
       </c>
       <c r="W9" s="1">
-        <v>16.631999999999998</v>
-      </c>
-      <c r="X9" s="1">
-        <v>-3.9200000000000017</v>
+        <v>1.125</v>
+      </c>
+      <c r="X9" s="45">
+        <v>231.52500000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>163.57999999999998</v>
+        <v>38.301750000000006</v>
       </c>
       <c r="Z9" s="1">
-        <v>134.22</v>
+        <v>22.094999999999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>-130.29999999999998</v>
-      </c>
-      <c r="AB9" s="39">
-        <v>-174.33999999999997</v>
+        <v>115.69499999999999</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>92.542500000000004</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>-114.6375</v>
+      </c>
+      <c r="AD9" s="39">
+        <v>-149.36625000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>53</v>
       </c>
@@ -2237,85 +2413,91 @@
         <v>100</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>100</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>12.5</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>230</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>3.7</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>13</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>0.1</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>0.05</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>0.12</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>0.22</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>6</v>
       </c>
-      <c r="R10" s="27">
+      <c r="T10" s="27">
         <v>1</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <v>50</v>
       </c>
-      <c r="T10" s="1">
+      <c r="V10" s="1">
         <v>315</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>14.625</v>
       </c>
-      <c r="V10" s="45">
+      <c r="X10" s="45">
         <v>379.625</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <v>0.64874999999999972</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Z10" s="1">
         <v>-25.924999999999997</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <v>239.07499999999999</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AB10" s="1">
         <v>201.11250000000001</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AC10" s="1">
         <v>-175.1875</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AD10" s="39">
         <v>-232.13124999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
@@ -2323,85 +2505,91 @@
         <v>100</v>
       </c>
       <c r="C11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>14</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>270</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>4</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>16</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>2.9</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>8</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>0.06</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>0.1</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>0.38</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>6</v>
       </c>
-      <c r="R11" s="27">
+      <c r="T11" s="27">
         <v>1</v>
       </c>
-      <c r="S11" s="1">
+      <c r="U11" s="1">
         <v>56</v>
       </c>
-      <c r="T11" s="1">
+      <c r="V11" s="1">
         <v>240.29999999999998</v>
       </c>
-      <c r="U11" s="1">
+      <c r="W11" s="1">
         <v>15.374999999999998</v>
       </c>
-      <c r="V11" s="45">
+      <c r="X11" s="45">
         <v>311.67499999999995</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Y11" s="1">
         <v>15.482250000000008</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Z11" s="1">
         <v>-6.3349999999999937</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AA11" s="1">
         <v>177.96499999999997</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AB11" s="1">
         <v>146.79750000000001</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AC11" s="1">
         <v>-140.46249999999998</v>
       </c>
-      <c r="AB11" s="39">
+      <c r="AD11" s="39">
         <v>-187.21374999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26" t="s">
         <v>57</v>
       </c>
@@ -2409,85 +2597,91 @@
         <v>100</v>
       </c>
       <c r="C12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <v>100</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>11.1</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>190</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>12</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>1.4</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>2.8</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>13</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
         <v>0.05</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <v>0.12</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>0.21</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>3</v>
       </c>
-      <c r="R12" s="27">
+      <c r="T12" s="27">
         <v>1</v>
       </c>
-      <c r="S12" s="1">
+      <c r="U12" s="1">
         <v>44.4</v>
       </c>
-      <c r="T12" s="1">
+      <c r="V12" s="1">
         <v>335.7</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <v>1.125</v>
       </c>
-      <c r="V12" s="45">
+      <c r="X12" s="45">
         <v>381.22499999999997</v>
       </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1">
         <v>-5.1592500000000001</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Z12" s="1">
         <v>-31.844999999999992</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AA12" s="1">
         <v>259.45499999999998</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AB12" s="1">
         <v>221.33249999999998</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AC12" s="1">
         <v>-189.48749999999998</v>
       </c>
-      <c r="AB12" s="39">
+      <c r="AD12" s="39">
         <v>-246.67124999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
         <v>59</v>
       </c>
@@ -2495,85 +2689,91 @@
         <v>100</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <v>100</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>16</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>330</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>22</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>1.4</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>4.5</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
         <v>0.08</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>0.2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>0.32</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>9</v>
       </c>
-      <c r="R13" s="27">
+      <c r="T13" s="27">
         <v>1</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <v>64</v>
       </c>
-      <c r="T13" s="1">
+      <c r="V13" s="1">
         <v>113.39999999999999</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <v>17.25</v>
       </c>
-      <c r="V13" s="45">
+      <c r="X13" s="45">
         <v>194.64999999999998</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Y13" s="1">
         <v>38.695500000000003</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <v>25.07</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <v>74.47</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AB13" s="1">
         <v>55.005000000000003</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AC13" s="1">
         <v>-80.074999999999989</v>
       </c>
-      <c r="AB13" s="39">
+      <c r="AD13" s="39">
         <v>-109.27249999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26" t="s">
         <v>61</v>
       </c>
@@ -2581,85 +2781,91 @@
         <v>100</v>
       </c>
       <c r="C14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <v>100</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>15</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>310</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>20</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>1.4</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>3.2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>5</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>0.08</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>0.17</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>0.34</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>6</v>
       </c>
-      <c r="R14" s="27">
+      <c r="T14" s="27">
         <v>1</v>
       </c>
-      <c r="S14" s="1">
+      <c r="U14" s="1">
         <v>60</v>
       </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
         <v>143.1</v>
       </c>
-      <c r="U14" s="1">
+      <c r="W14" s="1">
         <v>15.75</v>
       </c>
-      <c r="V14" s="45">
+      <c r="X14" s="45">
         <v>218.85</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="1">
         <v>31.549499999999998</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Z14" s="1">
         <v>16.229999999999997</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <v>99.329999999999984</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AB14" s="1">
         <v>77.444999999999993</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AC14" s="1">
         <v>-93.674999999999997</v>
       </c>
-      <c r="AB14" s="39">
+      <c r="AD14" s="39">
         <v>-126.5025</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
         <v>63</v>
       </c>
@@ -2667,85 +2873,91 @@
         <v>100</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1">
+      <c r="F15" s="1">
         <v>100</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>15.3</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>300</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>20</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>1.4</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>3.7</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>6</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
         <v>0.08</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>0.19</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <v>6</v>
       </c>
-      <c r="R15" s="27">
+      <c r="T15" s="27">
         <v>1</v>
       </c>
-      <c r="S15" s="1">
+      <c r="U15" s="1">
         <v>61.2</v>
       </c>
-      <c r="T15" s="1">
+      <c r="V15" s="1">
         <v>153.9</v>
       </c>
-      <c r="U15" s="1">
+      <c r="W15" s="1">
         <v>17.25</v>
       </c>
-      <c r="V15" s="45">
+      <c r="X15" s="45">
         <v>232.35000000000002</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Y15" s="1">
         <v>30.994499999999999</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Z15" s="1">
         <v>14.729999999999997</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AA15" s="1">
         <v>107.43</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AB15" s="1">
         <v>84.195000000000007</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AC15" s="1">
         <v>-98.925000000000011</v>
       </c>
-      <c r="AB15" s="39">
+      <c r="AD15" s="39">
         <v>-133.77750000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26" t="s">
         <v>65</v>
       </c>
@@ -2753,343 +2965,367 @@
         <v>100</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="1">
+      <c r="F16" s="1">
         <v>100</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <v>17.7</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>380</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>4</v>
       </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
         <v>23</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>2.4</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>3.4</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>4</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
         <v>0.12</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <v>0.26</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="1">
         <v>0.43</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="S16" s="1">
         <v>11</v>
       </c>
-      <c r="R16" s="27">
+      <c r="T16" s="27">
         <v>1</v>
       </c>
-      <c r="S16" s="1">
+      <c r="U16" s="1">
         <v>70.8</v>
       </c>
-      <c r="T16" s="1">
+      <c r="V16" s="1">
         <v>90.899999999999991</v>
       </c>
-      <c r="U16" s="1">
+      <c r="W16" s="1">
         <v>14.25</v>
       </c>
-      <c r="V16" s="45">
+      <c r="X16" s="45">
         <v>175.95</v>
       </c>
-      <c r="W16" s="1">
+      <c r="Y16" s="1">
         <v>47.926499999999997</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Z16" s="1">
         <v>35.61</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AA16" s="1">
         <v>55.709999999999994</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AB16" s="1">
         <v>38.114999999999995</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AC16" s="1">
         <v>-73.724999999999994</v>
       </c>
-      <c r="AB16" s="39">
+      <c r="AD16" s="39">
         <v>-100.11749999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B17" s="26">
         <v>100</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="1">
+        <v>113</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="1">
         <v>100</v>
       </c>
-      <c r="E17" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
       <c r="G17" s="1">
-        <v>320</v>
+        <v>17.2</v>
       </c>
       <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>310</v>
+      </c>
+      <c r="J17" s="1">
         <v>4</v>
       </c>
-      <c r="I17" s="1">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.5</v>
-      </c>
       <c r="K17" s="1">
-        <v>2.7</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="1">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="N17" s="1">
-        <v>0.66</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="P17" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R17" s="1">
         <v>0.32</v>
       </c>
-      <c r="Q17" s="1">
-        <v>2</v>
-      </c>
-      <c r="R17" s="27">
-        <v>2</v>
-      </c>
       <c r="S17" s="1">
-        <v>74</v>
-      </c>
-      <c r="T17" s="1">
-        <v>126</v>
+        <v>1</v>
+      </c>
+      <c r="T17" s="27">
+        <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="V17" s="45">
-        <v>200.75</v>
+        <v>68.8</v>
+      </c>
+      <c r="V17" s="1">
+        <v>166.5</v>
       </c>
       <c r="W17" s="1">
-        <v>47.902500000000003</v>
-      </c>
-      <c r="X17" s="1">
-        <v>33.849999999999994</v>
+        <v>11.25</v>
+      </c>
+      <c r="X17" s="45">
+        <v>246.55</v>
       </c>
       <c r="Y17" s="1">
-        <v>85.85</v>
+        <v>36.748499999999993</v>
       </c>
       <c r="Z17" s="1">
-        <v>65.775000000000006</v>
+        <v>19.489999999999995</v>
       </c>
       <c r="AA17" s="1">
-        <v>-99.625</v>
-      </c>
-      <c r="AB17" s="39">
-        <v>-129.73750000000001</v>
+        <v>117.19</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>92.534999999999997</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>-112.02500000000001</v>
+      </c>
+      <c r="AD17" s="39">
+        <v>-149.00750000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="26">
         <v>100</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1">
+        <v>113</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="E18" s="1">
-        <v>14.7</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
       <c r="G18" s="1">
-        <v>300</v>
+        <v>18.5</v>
       </c>
       <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>320</v>
+      </c>
+      <c r="J18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1">
-        <v>18</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.6</v>
-      </c>
       <c r="K18" s="1">
+        <v>21</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="1">
         <v>2.7</v>
       </c>
-      <c r="L18" s="1">
-        <v>6</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.3</v>
-      </c>
       <c r="N18" s="1">
-        <v>0.63</v>
+        <v>5</v>
       </c>
       <c r="O18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="Q18" s="1">
         <v>0.23</v>
       </c>
-      <c r="P18" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="S18" s="1">
         <v>2</v>
       </c>
-      <c r="R18" s="27">
+      <c r="T18" s="27">
         <v>2</v>
       </c>
-      <c r="S18" s="1">
-        <v>58.8</v>
-      </c>
-      <c r="T18" s="1">
-        <v>165.6</v>
-      </c>
       <c r="U18" s="1">
-        <v>12.75</v>
-      </c>
-      <c r="V18" s="45">
-        <v>237.14999999999998</v>
+        <v>74</v>
+      </c>
+      <c r="V18" s="1">
+        <v>126</v>
       </c>
       <c r="W18" s="1">
-        <v>27.970499999999998</v>
-      </c>
-      <c r="X18" s="1">
-        <v>11.369999999999997</v>
+        <v>0.75</v>
+      </c>
+      <c r="X18" s="45">
+        <v>200.75</v>
       </c>
       <c r="Y18" s="1">
-        <v>118.16999999999999</v>
+        <v>47.902500000000003</v>
       </c>
       <c r="Z18" s="1">
-        <v>94.454999999999998</v>
+        <v>33.849999999999994</v>
       </c>
       <c r="AA18" s="1">
-        <v>-105.82499999999999</v>
-      </c>
-      <c r="AB18" s="39">
-        <v>-141.39749999999998</v>
+        <v>85.85</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>65.775000000000006</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>-99.625</v>
+      </c>
+      <c r="AD18" s="39">
+        <v>-129.73750000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="26">
         <v>100</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="1">
+        <v>113</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1">
         <v>100</v>
       </c>
-      <c r="E19" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
       <c r="G19" s="1">
-        <v>310</v>
+        <v>14.7</v>
       </c>
       <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>300</v>
+      </c>
+      <c r="J19" s="1">
         <v>4</v>
       </c>
-      <c r="I19" s="1">
-        <v>22</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="N19" s="1">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1">
         <v>0.3</v>
       </c>
-      <c r="K19" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="L19" s="1">
-        <v>6</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0.15</v>
-      </c>
       <c r="P19" s="1">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" s="27">
-        <v>1</v>
+        <v>0.23</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.28000000000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>68.8</v>
-      </c>
-      <c r="T19" s="1">
-        <v>166.5</v>
+        <v>2</v>
+      </c>
+      <c r="T19" s="27">
+        <v>2</v>
       </c>
       <c r="U19" s="1">
-        <v>11.25</v>
-      </c>
-      <c r="V19" s="45">
-        <v>246.55</v>
+        <v>58.8</v>
+      </c>
+      <c r="V19" s="1">
+        <v>165.6</v>
       </c>
       <c r="W19" s="1">
-        <v>36.748499999999993</v>
-      </c>
-      <c r="X19" s="1">
-        <v>19.489999999999995</v>
+        <v>12.75</v>
+      </c>
+      <c r="X19" s="45">
+        <v>237.14999999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>117.19</v>
+        <v>27.970499999999998</v>
       </c>
       <c r="Z19" s="1">
-        <v>92.534999999999997</v>
+        <v>11.369999999999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>-112.02500000000001</v>
-      </c>
-      <c r="AB19" s="39">
-        <v>-149.00750000000002</v>
+        <v>118.16999999999999</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>94.454999999999998</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>-105.82499999999999</v>
+      </c>
+      <c r="AD19" s="39">
+        <v>-141.39749999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26" t="s">
         <v>73</v>
       </c>
@@ -3097,85 +3333,91 @@
         <v>100</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="1">
+      <c r="F20" s="1">
         <v>100</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>12.8</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>240</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>3</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>15</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>0.6</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>1.8</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>11</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="1">
         <v>0.5</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>0.51</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="1">
         <v>0.13</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>0.22</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="1">
         <v>2</v>
       </c>
-      <c r="R20" s="27">
+      <c r="T20" s="27">
         <v>1</v>
       </c>
-      <c r="S20" s="1">
+      <c r="U20" s="1">
         <v>51.2</v>
       </c>
-      <c r="T20" s="1">
+      <c r="V20" s="1">
         <v>314.09999999999997</v>
       </c>
-      <c r="U20" s="1">
+      <c r="W20" s="1">
         <v>0.375</v>
       </c>
-      <c r="V20" s="45">
+      <c r="X20" s="45">
         <v>365.67499999999995</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Y20" s="1">
         <v>3.6622500000000073</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Z20" s="1">
         <v>-21.934999999999988</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AA20" s="1">
         <v>240.96499999999997</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AB20" s="1">
         <v>204.39749999999998</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AC20" s="1">
         <v>-182.46249999999998</v>
       </c>
-      <c r="AB20" s="39">
+      <c r="AD20" s="39">
         <v>-237.31374999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26" t="s">
         <v>75</v>
       </c>
@@ -3183,85 +3425,91 @@
         <v>100</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="1">
+      <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
         <v>350</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
         <v>4</v>
       </c>
-      <c r="I21" s="1">
+      <c r="K21" s="1">
         <v>24</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>0.7</v>
       </c>
-      <c r="K21" s="1">
+      <c r="M21" s="1">
         <v>2</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>4</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="1">
         <v>0.1</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>0.9</v>
       </c>
-      <c r="O21" s="1">
+      <c r="Q21" s="1">
         <v>0.21</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>0.31</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="S21" s="1">
         <v>2</v>
       </c>
-      <c r="R21" s="27">
+      <c r="T21" s="27">
         <v>1</v>
       </c>
-      <c r="S21" s="1">
+      <c r="U21" s="1">
         <v>67.599999999999994</v>
       </c>
-      <c r="T21" s="1">
+      <c r="V21" s="1">
         <v>85.5</v>
       </c>
-      <c r="U21" s="1">
+      <c r="W21" s="1">
         <v>17.25</v>
       </c>
-      <c r="V21" s="45">
+      <c r="X21" s="45">
         <v>170.35</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Y21" s="1">
         <v>45.454499999999996</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Z21" s="1">
         <v>33.529999999999994</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AA21" s="1">
         <v>51.43</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AB21" s="1">
         <v>34.395000000000003</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AC21" s="1">
         <v>-67.924999999999997</v>
       </c>
-      <c r="AB21" s="39">
+      <c r="AD21" s="39">
         <v>-93.477500000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="26" t="s">
         <v>77</v>
       </c>
@@ -3269,85 +3517,91 @@
         <v>100</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="1">
+      <c r="F22" s="1">
         <v>100</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>15.6</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>320</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <v>4</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
         <v>22</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
         <v>0.5</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M22" s="1">
         <v>1.9</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>5</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="1">
         <v>0.2</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <v>0.79</v>
       </c>
-      <c r="O22" s="1">
+      <c r="Q22" s="1">
         <v>0.18</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R22" s="1">
         <v>0.36</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="S22" s="1">
         <v>1</v>
       </c>
-      <c r="R22" s="27">
+      <c r="T22" s="27">
         <v>1</v>
       </c>
-      <c r="S22" s="1">
+      <c r="U22" s="1">
         <v>62.4</v>
       </c>
-      <c r="T22" s="1">
+      <c r="V22" s="1">
         <v>143.1</v>
       </c>
-      <c r="U22" s="1">
+      <c r="W22" s="1">
         <v>15</v>
       </c>
-      <c r="V22" s="45">
+      <c r="X22" s="45">
         <v>220.5</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Y22" s="1">
         <v>33.734999999999999</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Z22" s="1">
         <v>18.299999999999997</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AA22" s="1">
         <v>99</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AB22" s="1">
         <v>76.95</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AC22" s="1">
         <v>-95.25</v>
       </c>
-      <c r="AB22" s="39">
+      <c r="AD22" s="39">
         <v>-128.32500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="26" t="s">
         <v>79</v>
       </c>
@@ -3355,515 +3609,551 @@
         <v>100</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>18.5</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>430</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
         <v>3</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K23" s="1">
         <v>27</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>0.9</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M23" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>3</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="1">
         <v>0.3</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
         <v>1.32</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="1">
         <v>0.25</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="1">
         <v>0.54</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="S23" s="1">
         <v>1</v>
       </c>
-      <c r="R23" s="27">
+      <c r="T23" s="27">
         <v>1</v>
       </c>
-      <c r="S23" s="1">
+      <c r="U23" s="1">
         <v>74</v>
       </c>
-      <c r="T23" s="1">
+      <c r="V23" s="1">
         <v>29.7</v>
       </c>
-      <c r="U23" s="1">
+      <c r="W23" s="1">
         <v>13.875</v>
       </c>
-      <c r="V23" s="45">
+      <c r="X23" s="45">
         <v>117.575</v>
       </c>
-      <c r="W23" s="1">
+      <c r="Y23" s="1">
         <v>58.715249999999997</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Z23" s="1">
         <v>50.484999999999999</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AA23" s="1">
         <v>6.1849999999999987</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AB23" s="1">
         <v>-5.5725000000000016</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AC23" s="1">
         <v>-44.912500000000001</v>
       </c>
-      <c r="AB23" s="39">
+      <c r="AD23" s="39">
         <v>-62.548749999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="26" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B24" s="26">
         <v>100</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="1">
+        <v>113</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1">
         <v>100</v>
       </c>
-      <c r="E24" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
       <c r="G24" s="1">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="J24" s="1">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K24" s="1">
-        <v>1.2</v>
+        <v>21</v>
       </c>
       <c r="L24" s="1">
-        <v>47</v>
+        <v>0.6</v>
       </c>
       <c r="M24" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="N24" s="1">
+        <v>40</v>
+      </c>
+      <c r="O24" s="1">
         <v>0.4</v>
       </c>
-      <c r="N24" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>0.1</v>
       </c>
-      <c r="P24" s="1">
-        <v>0.38</v>
-      </c>
       <c r="Q24" s="1">
-        <v>10</v>
-      </c>
-      <c r="R24" s="27">
-        <v>2</v>
+        <v>0.15</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.25</v>
       </c>
       <c r="S24" s="1">
-        <v>66</v>
-      </c>
-      <c r="T24" s="1">
-        <v>123.3</v>
+        <v>13</v>
+      </c>
+      <c r="T24" s="27">
+        <v>3</v>
       </c>
       <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="45">
-        <v>189.3</v>
+        <v>68</v>
+      </c>
+      <c r="V24" s="1">
+        <v>121.5</v>
       </c>
       <c r="W24" s="1">
-        <v>41.390999999999998</v>
-      </c>
-      <c r="X24" s="1">
-        <v>28.139999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="X24" s="45">
+        <v>189.5</v>
       </c>
       <c r="Y24" s="1">
-        <v>85.44</v>
+        <v>43.364999999999995</v>
       </c>
       <c r="Z24" s="1">
-        <v>66.509999999999991</v>
+        <v>30.1</v>
       </c>
       <c r="AA24" s="1">
-        <v>-94.65</v>
-      </c>
-      <c r="AB24" s="39">
-        <v>-123.04500000000002</v>
+        <v>83.6</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>-94.75</v>
+      </c>
+      <c r="AD24" s="39">
+        <v>-123.175</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="26">
         <v>100</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="1">
+        <v>113</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1">
         <v>100</v>
       </c>
-      <c r="E25" s="1">
-        <v>16.3</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
       <c r="G25" s="1">
-        <v>210</v>
+        <v>16.5</v>
       </c>
       <c r="H25" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="J25" s="1">
-        <v>0.6</v>
+        <v>14</v>
       </c>
       <c r="K25" s="1">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="L25" s="1">
-        <v>51</v>
+        <v>0.5</v>
       </c>
       <c r="M25" s="1">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="N25" s="1">
+        <v>47</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P25" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O25" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.3</v>
-      </c>
       <c r="Q25" s="1">
-        <v>8</v>
-      </c>
-      <c r="R25" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="S25" s="1">
+        <v>10</v>
+      </c>
+      <c r="T25" s="27">
         <v>2</v>
       </c>
-      <c r="S25" s="1">
-        <v>65.2</v>
-      </c>
-      <c r="T25" s="1">
-        <v>141.29999999999998</v>
-      </c>
       <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="45">
-        <v>206.5</v>
+        <v>66</v>
+      </c>
+      <c r="V25" s="1">
+        <v>123.3</v>
       </c>
       <c r="W25" s="1">
-        <v>38.355000000000004</v>
-      </c>
-      <c r="X25" s="1">
-        <v>23.9</v>
+        <v>0</v>
+      </c>
+      <c r="X25" s="45">
+        <v>189.3</v>
       </c>
       <c r="Y25" s="1">
-        <v>99.999999999999972</v>
+        <v>41.390999999999998</v>
       </c>
       <c r="Z25" s="1">
-        <v>79.349999999999994</v>
+        <v>28.139999999999993</v>
       </c>
       <c r="AA25" s="1">
-        <v>-103.25</v>
-      </c>
-      <c r="AB25" s="39">
-        <v>-134.22499999999999</v>
+        <v>85.44</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>66.509999999999991</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>-94.65</v>
+      </c>
+      <c r="AD25" s="39">
+        <v>-123.04500000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="26">
         <v>100</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="1">
+        <v>113</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="1">
         <v>100</v>
       </c>
-      <c r="E26" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
       <c r="G26" s="1">
-        <v>230</v>
+        <v>16.3</v>
       </c>
       <c r="H26" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="J26" s="1">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L26" s="1">
-        <v>44</v>
+        <v>0.6</v>
       </c>
       <c r="M26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>51</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P26" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="R26" s="1">
         <v>0.3</v>
       </c>
-      <c r="N26" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>12</v>
-      </c>
-      <c r="R26" s="27">
+      <c r="S26" s="1">
+        <v>8</v>
+      </c>
+      <c r="T26" s="27">
         <v>2</v>
       </c>
-      <c r="S26" s="1">
-        <v>66.8</v>
-      </c>
-      <c r="T26" s="1">
-        <v>108.89999999999999</v>
-      </c>
       <c r="U26" s="1">
-        <v>0</v>
-      </c>
-      <c r="V26" s="45">
-        <v>175.7</v>
+        <v>65.2</v>
+      </c>
+      <c r="V26" s="1">
+        <v>141.29999999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>43.959000000000003</v>
-      </c>
-      <c r="X26" s="1">
-        <v>31.659999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="X26" s="45">
+        <v>206.5</v>
       </c>
       <c r="Y26" s="1">
-        <v>73.759999999999991</v>
+        <v>38.355000000000004</v>
       </c>
       <c r="Z26" s="1">
-        <v>56.19</v>
+        <v>23.9</v>
       </c>
       <c r="AA26" s="1">
-        <v>-87.85</v>
-      </c>
-      <c r="AB26" s="39">
-        <v>-114.205</v>
+        <v>99.999999999999972</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>-103.25</v>
+      </c>
+      <c r="AD26" s="39">
+        <v>-134.22499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="26">
         <v>100</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="1">
+        <v>113</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1">
         <v>100</v>
       </c>
-      <c r="E27" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
       <c r="G27" s="1">
-        <v>340</v>
+        <v>16.7</v>
       </c>
       <c r="H27" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="J27" s="1">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1">
+        <v>19</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>44</v>
+      </c>
+      <c r="O27" s="1">
         <v>0.3</v>
       </c>
-      <c r="K27" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L27" s="1">
-        <v>18</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="P27" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="Q27" s="1">
         <v>0.1</v>
       </c>
-      <c r="N27" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="S27" s="1">
         <v>12</v>
       </c>
-      <c r="R27" s="27">
-        <v>3</v>
-      </c>
-      <c r="S27" s="1">
-        <v>69.2</v>
-      </c>
-      <c r="T27" s="1">
-        <v>49.5</v>
+      <c r="T27" s="27">
+        <v>2</v>
       </c>
       <c r="U27" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="V27" s="45">
-        <v>132.19999999999999</v>
+        <v>66.8</v>
+      </c>
+      <c r="V27" s="1">
+        <v>108.89999999999999</v>
       </c>
       <c r="W27" s="1">
-        <v>52.014000000000003</v>
-      </c>
-      <c r="X27" s="1">
-        <v>42.760000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="X27" s="45">
+        <v>175.7</v>
       </c>
       <c r="Y27" s="1">
-        <v>23.060000000000002</v>
+        <v>43.959000000000003</v>
       </c>
       <c r="Z27" s="1">
-        <v>9.8400000000000034</v>
+        <v>31.659999999999997</v>
       </c>
       <c r="AA27" s="1">
-        <v>-52.599999999999994</v>
-      </c>
-      <c r="AB27" s="39">
-        <v>-72.429999999999993</v>
+        <v>73.759999999999991</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>56.19</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>-87.85</v>
+      </c>
+      <c r="AD27" s="39">
+        <v>-114.205</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="26">
         <v>100</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="1">
+        <v>113</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="1">
         <v>100</v>
       </c>
-      <c r="E28" s="1">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
       <c r="G28" s="1">
-        <v>290</v>
+        <v>17.3</v>
       </c>
       <c r="H28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>27</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M28" s="1">
         <v>0.6</v>
       </c>
-      <c r="K28" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="L28" s="1">
-        <v>40</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.4</v>
-      </c>
       <c r="N28" s="1">
+        <v>18</v>
+      </c>
+      <c r="O28" s="1">
         <v>0.1</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.15</v>
-      </c>
       <c r="P28" s="1">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="Q28" s="1">
-        <v>13</v>
-      </c>
-      <c r="R28" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S28" s="1">
+        <v>12</v>
+      </c>
+      <c r="T28" s="27">
         <v>3</v>
       </c>
-      <c r="S28" s="1">
-        <v>68</v>
-      </c>
-      <c r="T28" s="1">
-        <v>121.5</v>
-      </c>
       <c r="U28" s="1">
-        <v>0</v>
-      </c>
-      <c r="V28" s="45">
-        <v>189.5</v>
+        <v>69.2</v>
+      </c>
+      <c r="V28" s="1">
+        <v>49.5</v>
       </c>
       <c r="W28" s="1">
-        <v>43.364999999999995</v>
-      </c>
-      <c r="X28" s="1">
-        <v>30.1</v>
+        <v>13.5</v>
+      </c>
+      <c r="X28" s="45">
+        <v>132.19999999999999</v>
       </c>
       <c r="Y28" s="1">
-        <v>83.6</v>
+        <v>52.014000000000003</v>
       </c>
       <c r="Z28" s="1">
-        <v>64.650000000000006</v>
+        <v>42.760000000000005</v>
       </c>
       <c r="AA28" s="1">
-        <v>-94.75</v>
-      </c>
-      <c r="AB28" s="39">
-        <v>-123.175</v>
+        <v>23.060000000000002</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>9.8400000000000034</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>-52.599999999999994</v>
+      </c>
+      <c r="AD28" s="39">
+        <v>-72.429999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="26" t="s">
         <v>91</v>
       </c>
@@ -3871,85 +4161,91 @@
         <v>100</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
         <v>100</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>19.7</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
         <v>410</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
         <v>4</v>
       </c>
-      <c r="I29" s="1">
+      <c r="K29" s="1">
         <v>32</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L29" s="1">
         <v>0.3</v>
       </c>
-      <c r="K29" s="1">
+      <c r="M29" s="1">
         <v>0.6</v>
       </c>
-      <c r="L29" s="1">
+      <c r="N29" s="1">
         <v>5</v>
       </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
         <v>0.09</v>
       </c>
-      <c r="O29" s="1">
+      <c r="Q29" s="1">
         <v>0.11</v>
       </c>
-      <c r="P29" s="1">
+      <c r="R29" s="1">
         <v>0.62</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="S29" s="1">
         <v>15</v>
       </c>
-      <c r="R29" s="27">
+      <c r="T29" s="27">
         <v>3</v>
       </c>
-      <c r="S29" s="1">
+      <c r="U29" s="1">
         <v>78.8</v>
       </c>
-      <c r="T29" s="1">
+      <c r="V29" s="1">
         <v>4.5</v>
       </c>
-      <c r="U29" s="1">
+      <c r="W29" s="1">
         <v>12.6</v>
       </c>
-      <c r="V29" s="45">
+      <c r="X29" s="45">
         <v>95.899999999999991</v>
       </c>
-      <c r="W29" s="1">
+      <c r="Y29" s="1">
         <v>66.332999999999998</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Z29" s="1">
         <v>59.62</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="AA29" s="1">
         <v>-14.68</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AB29" s="1">
         <v>-24.269999999999996</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AC29" s="1">
         <v>-35.349999999999994</v>
       </c>
-      <c r="AB29" s="39">
+      <c r="AD29" s="39">
         <v>-49.734999999999992</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="41" t="s">
         <v>93</v>
       </c>
@@ -3957,91 +4253,97 @@
         <v>100</v>
       </c>
       <c r="C30" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="42">
+      <c r="F30" s="42">
         <v>100</v>
       </c>
-      <c r="E30" s="42">
+      <c r="G30" s="42">
         <v>14.6</v>
       </c>
-      <c r="F30" s="42">
-        <v>0</v>
-      </c>
-      <c r="G30" s="42">
+      <c r="H30" s="42">
+        <v>0</v>
+      </c>
+      <c r="I30" s="42">
         <v>250</v>
       </c>
-      <c r="H30" s="42">
+      <c r="J30" s="42">
         <v>8</v>
       </c>
-      <c r="I30" s="42">
+      <c r="K30" s="42">
         <v>24</v>
       </c>
-      <c r="J30" s="42">
+      <c r="L30" s="42">
         <v>0.8</v>
       </c>
-      <c r="K30" s="42">
+      <c r="M30" s="42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L30" s="42">
+      <c r="N30" s="42">
         <v>37</v>
       </c>
-      <c r="M30" s="42">
+      <c r="O30" s="42">
         <v>0.1</v>
       </c>
-      <c r="N30" s="42">
+      <c r="P30" s="42">
         <v>0.09</v>
       </c>
-      <c r="O30" s="42">
+      <c r="Q30" s="42">
         <v>0.17</v>
       </c>
-      <c r="P30" s="42">
+      <c r="R30" s="42">
         <v>0.52</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="S30" s="42">
         <v>10</v>
       </c>
-      <c r="R30" s="43">
+      <c r="T30" s="43">
         <v>1</v>
       </c>
-      <c r="S30" s="44">
+      <c r="U30" s="44">
         <v>58.4</v>
       </c>
-      <c r="T30" s="42">
+      <c r="V30" s="42">
         <v>99</v>
       </c>
-      <c r="U30" s="42">
+      <c r="W30" s="42">
         <v>12.75</v>
       </c>
-      <c r="V30" s="46">
+      <c r="X30" s="46">
         <v>170.15</v>
       </c>
-      <c r="W30" s="42">
+      <c r="Y30" s="42">
         <v>36.280499999999996</v>
       </c>
-      <c r="X30" s="42">
+      <c r="Z30" s="42">
         <v>24.369999999999997</v>
       </c>
-      <c r="Y30" s="42">
+      <c r="AA30" s="42">
         <v>64.97</v>
       </c>
-      <c r="Z30" s="42">
+      <c r="AB30" s="42">
         <v>47.954999999999998</v>
       </c>
-      <c r="AA30" s="42">
+      <c r="AC30" s="42">
         <v>-72.325000000000003</v>
       </c>
-      <c r="AB30" s="40">
+      <c r="AD30" s="40">
         <v>-97.847500000000011</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4052,8 +4354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8435D20D-942F-455A-B057-2DD8C4A2B19D}">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AC30"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4220,47 +4522,47 @@
       <c r="D3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="55" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3" s="61"/>
+      <c r="N3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="59"/>
       <c r="Q3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="58" t="s">
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="21"/>
       <c r="AF3" s="21"/>

--- a/backend/食品標準成分表示_主食・肉類.xlsx
+++ b/backend/食品標準成分表示_主食・肉類.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538842F9-5B75-4423-9180-405FA8F90B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8CB56D-1DD8-42FF-A312-3A7AA42EDAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="1260" windowWidth="12330" windowHeight="10540" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
+    <workbookView xWindow="4990" yWindow="220" windowWidth="12330" windowHeight="10540" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
   </bookViews>
   <sheets>
     <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>

--- a/backend/食品標準成分表示_主食・肉類.xlsx
+++ b/backend/食品標準成分表示_主食・肉類.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8CB56D-1DD8-42FF-A312-3A7AA42EDAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3B3C18-7C59-45A5-8BA8-DD3078401508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4990" yWindow="220" windowWidth="12330" windowHeight="10540" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
+    <workbookView xWindow="4990" yWindow="220" windowWidth="16540" windowHeight="13820" xr2:uid="{7E36C7B1-DE88-404E-95FC-DCA1FB1238F9}"/>
   </bookViews>
   <sheets>
     <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>
@@ -1670,7 +1670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53B3E39-95ED-4142-9E14-53CE5E556F6C}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1858,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="26">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>111</v>
@@ -2042,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="26">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>112</v>
@@ -2054,7 +2056,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="1">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="G6" s="1">
         <v>5.3</v>
@@ -2146,7 +2148,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G7" s="1">
         <v>4.7</v>
